--- a/森林可持续经营管理绩效指标整理.xlsx
+++ b/森林可持续经营管理绩效指标整理.xlsx
@@ -24,18 +24,18 @@
     <sheet name="问题" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">整理后的指标体系!$A$2:$AV$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">整理后的指标体系!$A$2:$AV$110</definedName>
     <definedName name="_ftn1" localSheetId="1">王红春大海林指标体系!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="1">王红春大海林指标体系!#REF!</definedName>
     <definedName name="_Toc436832321" localSheetId="1">王红春大海林指标体系!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="884">
   <si>
     <t>蒙特利尔进程标准与指标体系</t>
   </si>
@@ -5553,9 +5553,6 @@
     <t>药材业产值增长率</t>
   </si>
   <si>
-    <t>2.7 森林旅游</t>
-  </si>
-  <si>
     <t>森林旅游业产值</t>
   </si>
   <si>
@@ -5574,9 +5571,6 @@
     <t>七、森林旅游人数-本年实际</t>
   </si>
   <si>
-    <t>2.8 清洁能源</t>
-  </si>
-  <si>
     <t>清洁能源业产值</t>
   </si>
   <si>
@@ -5592,9 +5586,6 @@
     <t>九、其它-产业产值 (万元)</t>
   </si>
   <si>
-    <t>2.10 林业重点生态工程</t>
-  </si>
-  <si>
     <t>天然林资源保护工程</t>
   </si>
   <si>
@@ -5659,9 +5650,6 @@
   </si>
   <si>
     <t>六、全部林业投资完成额</t>
-  </si>
-  <si>
-    <t>退耕还林工程</t>
   </si>
   <si>
     <t>退耕还林工程退耕地造林面积</t>
@@ -6334,10 +6322,6 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>2.12 森林防火业务</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
     <t>经济总产值</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
@@ -6472,10 +6456,6 @@
   </si>
   <si>
     <t>八、林业重点生态工程-（二）退耕还林工程-3.当年新封山（沙）育林面积-预计完成总计</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.11 野生动植物保护及自然保护区建设工程</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -7555,8 +7535,40 @@
     </r>
   </si>
   <si>
-    <t>在岗职工人数</t>
+    <t>退耕还林工程</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 多种经营</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 森林旅游</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6 清洁能源</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 其他产业</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8 林业重点生态工程</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9 野生动植物保护及自然保护区建设工程</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10 森林防火业务</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员构成</t>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7566,7 +7578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7849,7 +7861,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7880,8 +7892,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -8072,24 +8090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -8119,7 +8119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8456,9 +8456,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8495,6 +8492,18 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8567,61 +8576,85 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8920,398 +8953,398 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="149.36328125" style="60" customWidth="1"/>
     <col min="2" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="41.15" customHeight="1">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="24" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="24" customHeight="1">
       <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="24" customHeight="1">
       <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="24" customHeight="1">
       <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="24" customHeight="1">
       <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="24" customHeight="1">
       <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="24" customHeight="1">
       <c r="A12" s="64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="24" customHeight="1">
       <c r="A13" s="65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="24" customHeight="1">
       <c r="A14" s="65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="24" customHeight="1">
       <c r="A16" s="64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="24" customHeight="1">
       <c r="A17" s="65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="24" customHeight="1">
       <c r="A18" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="24" customHeight="1">
       <c r="A19" s="65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="24" customHeight="1">
       <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="24" customHeight="1">
       <c r="A22" s="64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="24" customHeight="1">
       <c r="A23" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="24" customHeight="1">
       <c r="A26" s="64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="24" customHeight="1">
       <c r="A28" s="64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="24" customHeight="1">
       <c r="A29" s="64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="24" customHeight="1">
       <c r="A31" s="64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="24" customHeight="1">
       <c r="A32" s="64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="24" customHeight="1">
       <c r="A34" s="64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="24" customHeight="1">
       <c r="A35" s="65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="24" customHeight="1">
       <c r="A36" s="65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="24" customHeight="1">
       <c r="A39" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="24" customHeight="1">
       <c r="A40" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="24" customHeight="1">
       <c r="A41" s="65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="24" customHeight="1">
       <c r="A42" s="65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="24" customHeight="1">
       <c r="A43" s="65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="24" customHeight="1">
       <c r="A44" s="65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="24" customHeight="1">
       <c r="A45" s="65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="24" customHeight="1">
       <c r="A46" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="24" customHeight="1">
       <c r="A47" s="65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="24" customHeight="1">
       <c r="A49" s="64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="24" customHeight="1">
       <c r="A50" s="65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="24" customHeight="1">
       <c r="A52" s="64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="24" customHeight="1">
       <c r="A53" s="65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="24" customHeight="1">
       <c r="A54" s="65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="24" customHeight="1">
       <c r="A55" s="65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="24" customHeight="1">
       <c r="A56" s="65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="24" customHeight="1">
       <c r="A58" s="64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="24" customHeight="1">
       <c r="A59" s="65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="24" customHeight="1">
       <c r="A61" s="64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="24" customHeight="1">
       <c r="A62" s="65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" s="58" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="24" customHeight="1">
       <c r="A65" s="64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="24" customHeight="1">
       <c r="A66" s="65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="24" customHeight="1">
       <c r="A68" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="24" customHeight="1">
       <c r="A70" s="64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="24" customHeight="1">
       <c r="A71" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="24" customHeight="1">
       <c r="A73" s="64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="24" customHeight="1">
       <c r="A74" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="24" customHeight="1">
       <c r="A76" s="64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="24" customHeight="1">
       <c r="A77" s="65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="27" customHeight="1">
       <c r="A78" s="64" t="s">
         <v>77</v>
       </c>
@@ -9328,7 +9361,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.36328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="51.36328125" style="3" customWidth="1"/>
@@ -9336,26 +9369,26 @@
     <col min="4" max="5" width="30.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="35.15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
-        <v>593</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A2" s="181" t="s">
+        <v>589</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>321</v>
@@ -9365,11 +9398,11 @@
         <v>252</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A3" s="181"/>
       <c r="B3" s="5" t="s">
         <v>322</v>
       </c>
@@ -9378,11 +9411,11 @@
         <v>252</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A4" s="181"/>
       <c r="B4" s="5" t="s">
         <v>323</v>
       </c>
@@ -9391,66 +9424,66 @@
         <v>252</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="170" t="s">
-        <v>595</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A5" s="181" t="s">
+        <v>591</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A6" s="181"/>
       <c r="B6" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A7" s="181"/>
       <c r="B7" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A8" s="181"/>
       <c r="B8" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A9" s="181" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
-        <v>601</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>369</v>
@@ -9460,327 +9493,327 @@
         <v>252</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A10" s="181"/>
       <c r="B10" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A11" s="181"/>
       <c r="B11" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A12" s="181"/>
       <c r="B12" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A13" s="181"/>
       <c r="B13" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A14" s="181"/>
       <c r="B14" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A15" s="181"/>
       <c r="B15" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A16" s="181"/>
       <c r="B16" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A17" s="181"/>
       <c r="B17" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A18" s="181" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A19" s="181"/>
+      <c r="B19" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22" customHeight="1">
+      <c r="A20" s="181"/>
+      <c r="B20" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22" customHeight="1">
+      <c r="A21" s="181"/>
+      <c r="B21" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="B20" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" customHeight="1">
+      <c r="A22" s="181"/>
       <c r="B22" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" customHeight="1">
+      <c r="A23" s="181"/>
+      <c r="B23" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22" customHeight="1">
+      <c r="A24" s="181" t="s">
+        <v>620</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D24" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A25" s="181"/>
+      <c r="B25" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A26" s="181"/>
+      <c r="B26" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A27" s="181" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="170" t="s">
-        <v>631</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A28" s="181"/>
       <c r="B28" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A29" s="181"/>
       <c r="B29" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="23.15" customHeight="1">
+      <c r="A30" s="181"/>
       <c r="B30" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="170"/>
+    <row r="31" spans="1:5" ht="22" customHeight="1">
+      <c r="A31" s="181"/>
       <c r="B31" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
+    <row r="32" spans="1:5" ht="22" customHeight="1">
+      <c r="A32" s="181"/>
       <c r="B32" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>297</v>
@@ -9808,7 +9841,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="4.453125" customWidth="1"/>
@@ -9823,23 +9856,23 @@
     <col min="11" max="11" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:15" ht="35.15" customHeight="1">
+      <c r="A1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
       <c r="L1" s="50"/>
     </row>
-    <row r="2" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18.649999999999999" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>79</v>
       </c>
@@ -9861,34 +9894,34 @@
       <c r="G2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="39" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="144" t="s">
+      <c r="L2" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.649999999999999" customHeight="1">
+      <c r="A3" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="128">
+      <c r="B3" s="131">
         <v>0.2</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="128">
+      <c r="D3" s="131">
         <v>0.3</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -9900,26 +9933,26 @@
       <c r="G3" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="52" t="s">
         <v>93</v>
       </c>
       <c r="K3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="129"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.399999999999999" customHeight="1">
+      <c r="A4" s="143"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="40" t="s">
         <v>95</v>
       </c>
@@ -9929,28 +9962,28 @@
       <c r="G4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="52" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-    </row>
-    <row r="5" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="133" t="s">
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.5" customHeight="1">
+      <c r="A5" s="143"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="131">
         <v>0.2</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -9962,26 +9995,26 @@
       <c r="G5" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="52" t="s">
         <v>103</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-    </row>
-    <row r="6" spans="1:15" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="130"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+    </row>
+    <row r="6" spans="1:15" ht="36.65" customHeight="1">
+      <c r="A6" s="143"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="40" t="s">
         <v>105</v>
       </c>
@@ -9991,26 +10024,26 @@
       <c r="G6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="127"/>
+      <c r="I6" s="130"/>
       <c r="J6" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-    </row>
-    <row r="7" spans="1:15" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="129"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+    </row>
+    <row r="7" spans="1:15" ht="35.15" customHeight="1">
+      <c r="A7" s="143"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="40" t="s">
         <v>109</v>
       </c>
@@ -10020,26 +10053,26 @@
       <c r="G7" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="127"/>
+      <c r="I7" s="130"/>
       <c r="J7" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-    </row>
-    <row r="8" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="133" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+    </row>
+    <row r="8" spans="1:15" ht="47.5" customHeight="1">
+      <c r="A8" s="143"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="128">
+      <c r="D8" s="131">
         <v>0.2</v>
       </c>
       <c r="E8" s="40" t="s">
@@ -10051,26 +10084,26 @@
       <c r="G8" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="126" t="s">
+      <c r="H8" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="127"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="K8" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-    </row>
-    <row r="9" spans="1:15" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="130"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+    </row>
+    <row r="9" spans="1:15" ht="29.15" customHeight="1">
+      <c r="A9" s="143"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="40" t="s">
         <v>115</v>
       </c>
@@ -10080,24 +10113,24 @@
       <c r="G9" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="127"/>
+      <c r="I9" s="130"/>
       <c r="J9" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-    </row>
-    <row r="10" spans="1:15" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="130"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+    </row>
+    <row r="10" spans="1:15" ht="42.65" customHeight="1">
+      <c r="A10" s="143"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="40" t="s">
         <v>118</v>
       </c>
@@ -10107,24 +10140,24 @@
       <c r="G10" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="126" t="s">
+      <c r="H10" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="146"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-    </row>
-    <row r="11" spans="1:15" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="130"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+    </row>
+    <row r="11" spans="1:15" ht="68.5" customHeight="1">
+      <c r="A11" s="143"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="40" t="s">
         <v>120</v>
       </c>
@@ -10134,26 +10167,26 @@
       <c r="G11" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="126" t="s">
+      <c r="H11" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="129"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.649999999999999" customHeight="1">
+      <c r="A12" s="143"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="40" t="s">
         <v>125</v>
       </c>
@@ -10163,25 +10196,25 @@
       <c r="G12" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="126" t="s">
+      <c r="H12" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="146"/>
+      <c r="K12" s="149"/>
       <c r="L12" s="50"/>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="133" t="s">
+    <row r="13" spans="1:15" ht="18.649999999999999" customHeight="1">
+      <c r="A13" s="143"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="131">
         <v>0.3</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -10193,10 +10226,10 @@
       <c r="G13" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="127"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="54"/>
       <c r="K13" s="52" t="s">
         <v>132</v>
@@ -10205,11 +10238,11 @@
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="130"/>
+    <row r="14" spans="1:15" ht="42.65" customHeight="1">
+      <c r="A14" s="143"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="40" t="s">
         <v>133</v>
       </c>
@@ -10219,23 +10252,23 @@
       <c r="G14" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="127"/>
+      <c r="I14" s="130"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="145" t="s">
+      <c r="K14" s="148" t="s">
         <v>135</v>
       </c>
       <c r="L14" s="50"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
     </row>
-    <row r="15" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="130"/>
+    <row r="15" spans="1:15" ht="42" customHeight="1">
+      <c r="A15" s="143"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="40" t="s">
         <v>136</v>
       </c>
@@ -10245,23 +10278,23 @@
       <c r="G15" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="147"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="50"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
     </row>
-    <row r="16" spans="1:15" ht="24.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="129"/>
+    <row r="16" spans="1:15" ht="24.65" customHeight="1">
+      <c r="A16" s="144"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="40" t="s">
         <v>138</v>
       </c>
@@ -10271,29 +10304,29 @@
       <c r="G16" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="146"/>
+      <c r="K16" s="149"/>
       <c r="L16" s="50"/>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
     </row>
-    <row r="17" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
+    <row r="17" spans="1:14" ht="51.65" customHeight="1">
+      <c r="A17" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="128">
+      <c r="B17" s="131">
         <v>0.5</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="131">
         <v>0.6</v>
       </c>
       <c r="E17" s="40" t="s">
@@ -10305,10 +10338,10 @@
       <c r="G17" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="52" t="s">
         <v>145</v>
       </c>
@@ -10319,11 +10352,11 @@
       <c r="M17" s="53"/>
       <c r="N17" s="53"/>
     </row>
-    <row r="18" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="130"/>
+    <row r="18" spans="1:14" ht="18.649999999999999" customHeight="1">
+      <c r="A18" s="143"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="133"/>
       <c r="E18" s="40" t="s">
         <v>147</v>
       </c>
@@ -10333,23 +10366,23 @@
       <c r="G18" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="I18" s="127"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="54"/>
-      <c r="K18" s="145" t="s">
+      <c r="K18" s="148" t="s">
         <v>150</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
     </row>
-    <row r="19" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="130"/>
+    <row r="19" spans="1:14" ht="18.649999999999999" customHeight="1">
+      <c r="A19" s="143"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="40" t="s">
         <v>151</v>
       </c>
@@ -10359,23 +10392,23 @@
       <c r="G19" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="127"/>
+      <c r="I19" s="130"/>
       <c r="J19" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="146"/>
+      <c r="K19" s="149"/>
       <c r="L19" s="50"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
     </row>
-    <row r="20" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="130"/>
+    <row r="20" spans="1:14" ht="18.649999999999999" customHeight="1">
+      <c r="A20" s="143"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="40" t="s">
         <v>154</v>
       </c>
@@ -10385,25 +10418,25 @@
       <c r="G20" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="130"/>
       <c r="J20" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="145" t="s">
+      <c r="K20" s="148" t="s">
         <v>157</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
     </row>
-    <row r="21" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="130"/>
+    <row r="21" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A21" s="143"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="40" t="s">
         <v>158</v>
       </c>
@@ -10413,23 +10446,23 @@
       <c r="G21" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="127"/>
+      <c r="I21" s="130"/>
       <c r="J21" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="K21" s="147"/>
+      <c r="K21" s="150"/>
       <c r="L21" s="50"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
     </row>
-    <row r="22" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="129"/>
+    <row r="22" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A22" s="143"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="40" t="s">
         <v>162</v>
       </c>
@@ -10439,25 +10472,25 @@
       <c r="G22" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="I22" s="127"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="146"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="50"/>
       <c r="M22" s="53"/>
       <c r="N22" s="53"/>
     </row>
-    <row r="23" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="133" t="s">
+    <row r="23" spans="1:14" ht="39" customHeight="1">
+      <c r="A23" s="143"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="128">
+      <c r="D23" s="131">
         <v>0.4</v>
       </c>
       <c r="E23" s="40" t="s">
@@ -10469,25 +10502,25 @@
       <c r="G23" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="126" t="s">
+      <c r="H23" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="127"/>
+      <c r="I23" s="130"/>
       <c r="J23" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="K23" s="145" t="s">
+      <c r="K23" s="148" t="s">
         <v>169</v>
       </c>
       <c r="L23" s="50"/>
       <c r="M23" s="53"/>
       <c r="N23" s="53"/>
     </row>
-    <row r="24" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="130"/>
+    <row r="24" spans="1:14" ht="36.65" customHeight="1">
+      <c r="A24" s="143"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="40" t="s">
         <v>170</v>
       </c>
@@ -10497,23 +10530,23 @@
       <c r="G24" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="H24" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="130"/>
       <c r="J24" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="147"/>
+      <c r="K24" s="150"/>
       <c r="L24" s="50"/>
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
     </row>
-    <row r="25" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="130"/>
+    <row r="25" spans="1:14" ht="36.65" customHeight="1">
+      <c r="A25" s="143"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="40" t="s">
         <v>173</v>
       </c>
@@ -10523,23 +10556,23 @@
       <c r="G25" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="126" t="s">
+      <c r="H25" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="130"/>
       <c r="J25" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="147"/>
+      <c r="K25" s="150"/>
       <c r="L25" s="50"/>
       <c r="M25" s="53"/>
       <c r="N25" s="53"/>
     </row>
-    <row r="26" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="130"/>
+    <row r="26" spans="1:14" ht="36.65" customHeight="1">
+      <c r="A26" s="143"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="40" t="s">
         <v>176</v>
       </c>
@@ -10549,23 +10582,23 @@
       <c r="G26" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="146"/>
+      <c r="K26" s="149"/>
       <c r="L26" s="50"/>
       <c r="M26" s="53"/>
       <c r="N26" s="53"/>
     </row>
-    <row r="27" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="130"/>
+    <row r="27" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A27" s="143"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="133"/>
       <c r="E27" s="40" t="s">
         <v>179</v>
       </c>
@@ -10575,25 +10608,25 @@
       <c r="G27" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="126" t="s">
+      <c r="H27" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="127"/>
+      <c r="I27" s="130"/>
       <c r="J27" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="K27" s="145" t="s">
+      <c r="K27" s="148" t="s">
         <v>182</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53"/>
     </row>
-    <row r="28" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="130"/>
+    <row r="28" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A28" s="143"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="40" t="s">
         <v>183</v>
       </c>
@@ -10603,23 +10636,23 @@
       <c r="G28" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="126" t="s">
+      <c r="H28" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="130"/>
       <c r="J28" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="K28" s="146"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="50"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53"/>
     </row>
-    <row r="29" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="140"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="130"/>
+    <row r="29" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A29" s="143"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="40" t="s">
         <v>186</v>
       </c>
@@ -10638,18 +10671,18 @@
       <c r="J29" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="145" t="s">
+      <c r="K29" s="148" t="s">
         <v>190</v>
       </c>
       <c r="L29" s="50"/>
       <c r="M29" s="53"/>
       <c r="N29" s="53"/>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="142"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="136"/>
+    <row r="30" spans="1:14" s="35" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A30" s="145"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="45" t="s">
         <v>191</v>
       </c>
@@ -10668,22 +10701,22 @@
       <c r="J30" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="148"/>
+      <c r="K30" s="151"/>
       <c r="L30" s="56"/>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
     </row>
-    <row r="31" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="139" t="s">
+    <row r="31" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A31" s="142" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="128">
+      <c r="B31" s="131">
         <v>0.3</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="137">
+      <c r="D31" s="140">
         <v>0.3</v>
       </c>
       <c r="E31" s="49" t="s">
@@ -10695,10 +10728,10 @@
       <c r="G31" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="126" t="s">
+      <c r="H31" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="127"/>
+      <c r="I31" s="130"/>
       <c r="J31" s="52" t="s">
         <v>199</v>
       </c>
@@ -10709,11 +10742,11 @@
       <c r="M31" s="53"/>
       <c r="N31" s="53"/>
     </row>
-    <row r="32" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="138"/>
+    <row r="32" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A32" s="143"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="49" t="s">
         <v>201</v>
       </c>
@@ -10723,10 +10756,10 @@
       <c r="G32" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="126" t="s">
+      <c r="H32" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="I32" s="127"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="52" t="s">
         <v>203</v>
       </c>
@@ -10737,13 +10770,13 @@
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
     </row>
-    <row r="33" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="133" t="s">
+    <row r="33" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A33" s="143"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="128">
+      <c r="D33" s="131">
         <v>0.3</v>
       </c>
       <c r="E33" s="40" t="s">
@@ -10755,10 +10788,10 @@
       <c r="G33" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="126" t="s">
+      <c r="H33" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="127"/>
+      <c r="I33" s="130"/>
       <c r="J33" s="52" t="s">
         <v>208</v>
       </c>
@@ -10769,11 +10802,11 @@
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
     </row>
-    <row r="34" spans="1:14" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="129"/>
+    <row r="34" spans="1:14" ht="17.149999999999999" customHeight="1">
+      <c r="A34" s="143"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="40" t="s">
         <v>210</v>
       </c>
@@ -10783,10 +10816,10 @@
       <c r="G34" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="I34" s="127"/>
+      <c r="I34" s="130"/>
       <c r="J34" s="52" t="s">
         <v>212</v>
       </c>
@@ -10797,13 +10830,13 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
     </row>
-    <row r="35" spans="1:14" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="133" t="s">
+    <row r="35" spans="1:14" ht="32.15" customHeight="1">
+      <c r="A35" s="143"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="128">
+      <c r="D35" s="131">
         <v>0.4</v>
       </c>
       <c r="E35" s="40" t="s">
@@ -10815,25 +10848,25 @@
       <c r="G35" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="126" t="s">
+      <c r="H35" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="I35" s="127"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="K35" s="145" t="s">
+      <c r="K35" s="148" t="s">
         <v>218</v>
       </c>
       <c r="L35" s="50"/>
       <c r="M35" s="53"/>
       <c r="N35" s="53"/>
     </row>
-    <row r="36" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="140"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="130"/>
+    <row r="36" spans="1:14" ht="53.5" customHeight="1">
+      <c r="A36" s="143"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="133"/>
       <c r="E36" s="40" t="s">
         <v>219</v>
       </c>
@@ -10843,23 +10876,23 @@
       <c r="G36" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="I36" s="127"/>
+      <c r="I36" s="130"/>
       <c r="J36" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="K36" s="146"/>
+      <c r="K36" s="149"/>
       <c r="L36" s="50"/>
       <c r="M36" s="53"/>
       <c r="N36" s="53"/>
     </row>
-    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="130"/>
+    <row r="37" spans="1:14" ht="20.149999999999999" customHeight="1">
+      <c r="A37" s="143"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="40" t="s">
         <v>222</v>
       </c>
@@ -10869,25 +10902,25 @@
       <c r="G37" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="126" t="s">
+      <c r="H37" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="127"/>
+      <c r="I37" s="130"/>
       <c r="J37" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="K37" s="145" t="s">
+      <c r="K37" s="148" t="s">
         <v>224</v>
       </c>
       <c r="L37" s="50"/>
       <c r="M37" s="53"/>
       <c r="N37" s="53"/>
     </row>
-    <row r="38" spans="1:14" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="130"/>
+    <row r="38" spans="1:14" ht="18.649999999999999" customHeight="1">
+      <c r="A38" s="143"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="133"/>
       <c r="E38" s="40" t="s">
         <v>225</v>
       </c>
@@ -10897,23 +10930,23 @@
       <c r="G38" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="126" t="s">
+      <c r="H38" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="127"/>
+      <c r="I38" s="130"/>
       <c r="J38" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="K38" s="147"/>
+      <c r="K38" s="150"/>
       <c r="L38" s="50"/>
       <c r="M38" s="53"/>
       <c r="N38" s="53"/>
     </row>
-    <row r="39" spans="1:14" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="141"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="129"/>
+    <row r="39" spans="1:14" ht="42.65" customHeight="1">
+      <c r="A39" s="144"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="40" t="s">
         <v>227</v>
       </c>
@@ -10932,38 +10965,38 @@
       <c r="J39" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="K39" s="146"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="50"/>
       <c r="M39" s="53"/>
       <c r="N39" s="53"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="L40" s="50"/>
       <c r="M40" s="53"/>
       <c r="N40" s="53"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="50"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="50"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="50"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -11053,21 +11086,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV108"/>
+  <dimension ref="A1:AV111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="C105" sqref="C105:C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.26953125" style="19" customWidth="1"/>
     <col min="2" max="2" width="15.453125" style="20" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="118" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="117" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" style="22" customWidth="1"/>
     <col min="6" max="6" width="13.90625" style="23" customWidth="1"/>
     <col min="7" max="11" width="7.90625" style="24" customWidth="1"/>
@@ -11083,67 +11116,67 @@
     <col min="25" max="25" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:48" ht="21" customHeight="1">
+      <c r="A1" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="165" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="164" t="s">
-        <v>876</v>
-      </c>
-      <c r="E1" s="158" t="s">
+      <c r="D1" s="165" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="163" t="s">
+      <c r="G1" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163" t="s">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
       <c r="Q1" s="82"/>
       <c r="R1" s="82"/>
-      <c r="S1" s="161" t="s">
+      <c r="S1" s="169" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="161" t="s">
-        <v>878</v>
-      </c>
-      <c r="U1" s="161" t="s">
+      <c r="T1" s="169" t="s">
+        <v>872</v>
+      </c>
+      <c r="U1" s="169" t="s">
         <v>236</v>
       </c>
-      <c r="V1" s="161" t="s">
+      <c r="V1" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="W1" s="162" t="s">
+      <c r="W1" s="170" t="s">
         <v>238</v>
       </c>
-      <c r="X1" s="161" t="s">
+      <c r="X1" s="169" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+    <row r="2" spans="1:48" ht="21" customHeight="1">
+      <c r="A2" s="171"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
       <c r="G2" s="82" t="s">
         <v>240</v>
       </c>
@@ -11180,27 +11213,27 @@
       <c r="R2" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="161"/>
-    </row>
-    <row r="3" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151" t="s">
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="169"/>
+    </row>
+    <row r="3" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="167" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="152" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="172" t="s">
         <v>254</v>
       </c>
       <c r="D3" s="107">
         <v>1</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="118" t="s">
         <v>255</v>
       </c>
       <c r="F3" s="70" t="s">
@@ -11225,8 +11258,8 @@
       <c r="S3" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="T3" s="124" t="s">
-        <v>879</v>
+      <c r="T3" s="123" t="s">
+        <v>873</v>
       </c>
       <c r="U3" s="72" t="s">
         <v>258</v>
@@ -11241,14 +11274,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="74" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="163"/>
+    <row r="4" spans="1:48" s="74" customFormat="1" ht="38.15" customHeight="1">
+      <c r="A4" s="167"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="172"/>
       <c r="D4" s="107">
         <v>2</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="118" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="30" t="s">
@@ -11275,8 +11308,8 @@
       <c r="S4" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="T4" s="124" t="s">
-        <v>880</v>
+      <c r="T4" s="123" t="s">
+        <v>874</v>
       </c>
       <c r="U4" s="72" t="s">
         <v>263</v>
@@ -11309,14 +11342,14 @@
       <c r="AO4" s="18"/>
       <c r="AP4" s="18"/>
     </row>
-    <row r="5" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="163"/>
+    <row r="5" spans="1:48" s="74" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="167"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="172"/>
       <c r="D5" s="107">
         <v>3</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="118" t="s">
         <v>266</v>
       </c>
       <c r="F5" s="30" t="s">
@@ -11368,14 +11401,14 @@
       <c r="AJ5" s="18"/>
       <c r="AU5" s="18"/>
     </row>
-    <row r="6" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="163"/>
+    <row r="6" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1">
+      <c r="A6" s="167"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="172"/>
       <c r="D6" s="107">
         <v>4</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="118" t="s">
         <v>272</v>
       </c>
       <c r="F6" s="70" t="s">
@@ -11404,7 +11437,7 @@
         <v>275</v>
       </c>
       <c r="U6" s="94" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="V6" s="72" t="s">
         <v>276</v>
@@ -11416,14 +11449,14 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="163"/>
+    <row r="7" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="172"/>
       <c r="D7" s="107">
         <v>5</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="118" t="s">
         <v>278</v>
       </c>
       <c r="F7" s="70" t="s">
@@ -11472,10 +11505,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="163" t="s">
+    <row r="8" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A8" s="167"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="172" t="s">
         <v>282</v>
       </c>
       <c r="D8" s="107">
@@ -11520,10 +11553,10 @@
       </c>
       <c r="X8" s="30"/>
     </row>
-    <row r="9" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="163"/>
+    <row r="9" spans="1:48" s="74" customFormat="1" ht="16" customHeight="1">
+      <c r="A9" s="167"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="107">
         <v>7</v>
       </c>
@@ -11566,14 +11599,14 @@
       </c>
       <c r="X9" s="70"/>
     </row>
-    <row r="10" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="163"/>
+    <row r="10" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A10" s="167"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="172"/>
       <c r="D10" s="107">
         <v>8</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="118" t="s">
         <v>291</v>
       </c>
       <c r="F10" s="30" t="s">
@@ -11610,14 +11643,14 @@
       <c r="W10" s="34"/>
       <c r="X10" s="30"/>
     </row>
-    <row r="11" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="163"/>
+    <row r="11" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="167"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="172"/>
       <c r="D11" s="107">
         <v>9</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="119" t="s">
         <v>295</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -11662,14 +11695,14 @@
       </c>
       <c r="X11" s="30"/>
     </row>
-    <row r="12" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="163"/>
+    <row r="12" spans="1:48" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A12" s="167"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="107">
         <v>10</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="119" t="s">
         <v>301</v>
       </c>
       <c r="F12" s="30" t="s">
@@ -11714,9 +11747,9 @@
       </c>
       <c r="X12" s="30"/>
     </row>
-    <row r="13" spans="1:48" s="76" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="159"/>
+    <row r="13" spans="1:48" s="76" customFormat="1" ht="16" customHeight="1">
+      <c r="A13" s="168"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="97" t="s">
         <v>303</v>
       </c>
@@ -11792,13 +11825,13 @@
       <c r="AU13" s="18"/>
       <c r="AV13" s="18"/>
     </row>
-    <row r="14" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151"/>
-      <c r="B14" s="149" t="s">
+    <row r="14" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A14" s="167"/>
+      <c r="B14" s="152" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D14" s="107">
         <v>12</v>
@@ -11842,11 +11875,11 @@
       </c>
       <c r="X14" s="30"/>
     </row>
-    <row r="15" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
-      <c r="B15" s="149"/>
+    <row r="15" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A15" s="167"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="97" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D15" s="107">
         <v>13</v>
@@ -11876,11 +11909,11 @@
       <c r="W15" s="34"/>
       <c r="X15" s="30"/>
     </row>
-    <row r="16" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="149"/>
+    <row r="16" spans="1:48" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A16" s="167"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="97" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D16" s="107">
         <v>14</v>
@@ -11926,11 +11959,11 @@
       </c>
       <c r="X16" s="30"/>
     </row>
-    <row r="17" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
-      <c r="B17" s="149"/>
+    <row r="17" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A17" s="167"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="97" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D17" s="107">
         <v>15</v>
@@ -11960,11 +11993,11 @@
       <c r="W17" s="34"/>
       <c r="X17" s="30"/>
     </row>
-    <row r="18" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
-      <c r="B18" s="149"/>
+    <row r="18" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A18" s="167"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="97" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D18" s="107">
         <v>16</v>
@@ -12010,11 +12043,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
-      <c r="B19" s="149"/>
+    <row r="19" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A19" s="167"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="97" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D19" s="107">
         <v>17</v>
@@ -12044,18 +12077,18 @@
       <c r="W19" s="34"/>
       <c r="X19" s="30"/>
     </row>
-    <row r="20" spans="1:24" s="89" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="159"/>
+    <row r="20" spans="1:24" s="89" customFormat="1" ht="51" customHeight="1">
+      <c r="A20" s="168"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="96" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D20" s="107">
         <v>18</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="92" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G20" s="71" t="s">
         <v>256</v>
@@ -12086,30 +12119,30 @@
         <v>256</v>
       </c>
       <c r="S20" s="90" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="T20" s="94"/>
       <c r="U20" s="94" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="V20" s="94"/>
       <c r="W20" s="98" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="X20" s="92"/>
     </row>
-    <row r="21" spans="1:24" s="89" customFormat="1" ht="67.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="159"/>
+    <row r="21" spans="1:24" s="89" customFormat="1" ht="67.75" customHeight="1">
+      <c r="A21" s="168"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="96" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D21" s="107">
         <v>19</v>
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="92" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G21" s="71" t="s">
         <v>256</v>
@@ -12138,25 +12171,25 @@
         <v>256</v>
       </c>
       <c r="S21" s="90" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="T21" s="94" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="U21" s="94" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="V21" s="94"/>
       <c r="W21" s="98" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="X21" s="92"/>
     </row>
-    <row r="22" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149" t="s">
-        <v>647</v>
+    <row r="22" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A22" s="167"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="164" t="s">
+        <v>643</v>
       </c>
       <c r="D22" s="107">
         <v>20</v>
@@ -12200,15 +12233,15 @@
       </c>
       <c r="X22" s="30"/>
     </row>
-    <row r="23" spans="1:24" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
+    <row r="23" spans="1:24" s="18" customFormat="1" ht="39" customHeight="1">
+      <c r="A23" s="167"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="107">
         <v>21</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="71" t="s">
@@ -12246,10 +12279,10 @@
       </c>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="1:24" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
+    <row r="24" spans="1:24" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A24" s="167"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="164"/>
       <c r="D24" s="107">
         <v>22</v>
       </c>
@@ -12292,21 +12325,21 @@
       </c>
       <c r="X24" s="30"/>
     </row>
-    <row r="25" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="151" t="s">
+    <row r="25" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1">
+      <c r="A25" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="164" t="s">
         <v>337</v>
       </c>
       <c r="D25" s="107">
         <v>23</v>
       </c>
-      <c r="E25" s="120" t="s">
-        <v>649</v>
+      <c r="E25" s="119" t="s">
+        <v>645</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>273</v>
@@ -12344,7 +12377,7 @@
         <v>297</v>
       </c>
       <c r="U25" s="33" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="V25" s="33" t="s">
         <v>339</v>
@@ -12354,18 +12387,18 @@
       </c>
       <c r="X25" s="30"/>
     </row>
-    <row r="26" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
+    <row r="26" spans="1:24" s="18" customFormat="1" ht="47.5" customHeight="1">
+      <c r="A26" s="167"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="107">
         <v>24</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F26" s="84" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G26" s="71" t="s">
         <v>256</v>
@@ -12398,28 +12431,28 @@
       <c r="Q26" s="82"/>
       <c r="R26" s="82"/>
       <c r="S26" s="80" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="T26" s="81" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="U26" s="81" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="V26" s="33"/>
       <c r="W26" s="85" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="X26" s="30"/>
     </row>
-    <row r="27" spans="1:24" s="18" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
+    <row r="27" spans="1:24" s="18" customFormat="1" ht="46" customHeight="1">
+      <c r="A27" s="167"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="107">
         <v>25</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="119" t="s">
         <v>340</v>
       </c>
       <c r="F27" s="30" t="s">
@@ -12466,14 +12499,14 @@
       </c>
       <c r="X27" s="30"/>
     </row>
-    <row r="28" spans="1:24" s="18" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="151"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
+    <row r="28" spans="1:24" s="18" customFormat="1" ht="31" customHeight="1">
+      <c r="A28" s="167"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="107">
         <v>26</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="119" t="s">
         <v>345</v>
       </c>
       <c r="F28" s="30" t="s">
@@ -12520,15 +12553,15 @@
       </c>
       <c r="X28" s="30"/>
     </row>
-    <row r="29" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
+    <row r="29" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1">
+      <c r="A29" s="167"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="107">
         <v>27</v>
       </c>
       <c r="E29" s="86" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>91</v>
@@ -12556,17 +12589,17 @@
       <c r="O29" s="87"/>
       <c r="P29" s="87"/>
       <c r="Q29" s="87" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="R29" s="87"/>
       <c r="S29" s="87" t="s">
         <v>257</v>
       </c>
       <c r="T29" s="86" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="U29" s="87" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="V29" s="88"/>
       <c r="W29" s="86" t="s">
@@ -12574,15 +12607,15 @@
       </c>
       <c r="X29" s="104"/>
     </row>
-    <row r="30" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="151"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
+    <row r="30" spans="1:24" s="89" customFormat="1" ht="31" customHeight="1">
+      <c r="A30" s="167"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="107">
         <v>28</v>
       </c>
       <c r="E30" s="86" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F30" s="87" t="s">
         <v>91</v>
@@ -12615,10 +12648,10 @@
         <v>257</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="U30" s="87" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="V30" s="88"/>
       <c r="W30" s="86" t="s">
@@ -12626,10 +12659,10 @@
       </c>
       <c r="X30" s="104"/>
     </row>
-    <row r="31" spans="1:24" s="89" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149" t="s">
+    <row r="31" spans="1:24" s="89" customFormat="1" ht="66" customHeight="1">
+      <c r="A31" s="167"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="164" t="s">
         <v>350</v>
       </c>
       <c r="D31" s="107">
@@ -12680,7 +12713,7 @@
         <v>297</v>
       </c>
       <c r="U31" s="33" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="V31" s="81" t="s">
         <v>354</v>
@@ -12692,10 +12725,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="89" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="151"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
+    <row r="32" spans="1:24" s="89" customFormat="1" ht="41.15" customHeight="1">
+      <c r="A32" s="167"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="107">
         <v>30</v>
       </c>
@@ -12741,10 +12774,10 @@
         <v>257</v>
       </c>
       <c r="T32" s="93" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="U32" s="94" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="V32" s="94"/>
       <c r="W32" s="95" t="s">
@@ -12754,10 +12787,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
+    <row r="33" spans="1:24" s="89" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A33" s="168"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="177"/>
       <c r="D33" s="107">
         <v>31</v>
       </c>
@@ -12797,23 +12830,23 @@
         <v>257</v>
       </c>
       <c r="T33" s="93" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="U33" s="94" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="V33" s="94"/>
       <c r="W33" s="95" t="s">
         <v>260</v>
       </c>
       <c r="X33" s="92" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="74" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="151"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="74" customFormat="1" ht="40" customHeight="1">
+      <c r="A34" s="167"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="107">
         <v>32</v>
       </c>
@@ -12862,7 +12895,7 @@
         <v>297</v>
       </c>
       <c r="U34" s="94" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="V34" s="94"/>
       <c r="W34" s="95" t="s">
@@ -12872,10 +12905,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="151"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
+    <row r="35" spans="1:24" s="18" customFormat="1" ht="54" customHeight="1">
+      <c r="A35" s="167"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="107">
         <v>33</v>
       </c>
@@ -12921,10 +12954,10 @@
         <v>257</v>
       </c>
       <c r="T35" s="86" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="U35" s="81" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="V35" s="81"/>
       <c r="W35" s="91" t="s">
@@ -12934,16 +12967,16 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="151"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149" t="s">
+    <row r="36" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="167"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="164" t="s">
         <v>361</v>
       </c>
       <c r="D36" s="107">
         <v>34</v>
       </c>
-      <c r="E36" s="120" t="s">
+      <c r="E36" s="119" t="s">
         <v>362</v>
       </c>
       <c r="F36" s="79" t="s">
@@ -12984,14 +13017,14 @@
       </c>
       <c r="X36" s="30"/>
     </row>
-    <row r="37" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="151"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
+    <row r="37" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="167"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="164"/>
       <c r="D37" s="107">
         <v>35</v>
       </c>
-      <c r="E37" s="120" t="s">
+      <c r="E37" s="119" t="s">
         <v>365</v>
       </c>
       <c r="F37" s="79" t="s">
@@ -13032,14 +13065,14 @@
       </c>
       <c r="X37" s="30"/>
     </row>
-    <row r="38" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="151"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
+    <row r="38" spans="1:24" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="167"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="107">
         <v>36</v>
       </c>
-      <c r="E38" s="120" t="s">
+      <c r="E38" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F38" s="79" t="s">
@@ -13080,11 +13113,11 @@
       </c>
       <c r="X38" s="30"/>
     </row>
-    <row r="39" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="151"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149" t="s">
-        <v>728</v>
+    <row r="39" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A39" s="167"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="164" t="s">
+        <v>722</v>
       </c>
       <c r="D39" s="107">
         <v>37</v>
@@ -13093,7 +13126,7 @@
         <v>370</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="G39" s="71" t="s">
         <v>256</v>
@@ -13108,50 +13141,50 @@
         <v>256</v>
       </c>
       <c r="M39" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N39" s="90"/>
       <c r="O39" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P39" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="Q39" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="R39" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="S39" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="T39" s="86" t="s">
+        <v>746</v>
+      </c>
+      <c r="U39" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="V39" s="81" t="s">
         <v>738</v>
-      </c>
-      <c r="T39" s="86" t="s">
-        <v>752</v>
-      </c>
-      <c r="U39" s="81" t="s">
-        <v>742</v>
-      </c>
-      <c r="V39" s="81" t="s">
-        <v>744</v>
       </c>
       <c r="W39" s="91" t="s">
         <v>260</v>
       </c>
       <c r="X39" s="105"/>
     </row>
-    <row r="40" spans="1:24" s="18" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="151"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
+    <row r="40" spans="1:24" s="18" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A40" s="167"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="107">
         <v>38</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G40" s="71" t="s">
         <v>256</v>
@@ -13160,53 +13193,53 @@
       <c r="I40" s="90"/>
       <c r="J40" s="90"/>
       <c r="K40" s="90" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="L40" s="71" t="s">
         <v>256</v>
       </c>
       <c r="M40" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N40" s="90"/>
       <c r="O40" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="P40" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q40" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="R40" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="S40" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="T40" s="86" t="s">
+        <v>747</v>
+      </c>
+      <c r="U40" s="81" t="s">
+        <v>748</v>
+      </c>
+      <c r="V40" s="81" t="s">
         <v>749</v>
       </c>
-      <c r="P40" s="90" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q40" s="90" t="s">
-        <v>749</v>
-      </c>
-      <c r="R40" s="90" t="s">
-        <v>749</v>
-      </c>
-      <c r="S40" s="80" t="s">
-        <v>738</v>
-      </c>
-      <c r="T40" s="86" t="s">
-        <v>753</v>
-      </c>
-      <c r="U40" s="81" t="s">
-        <v>754</v>
-      </c>
-      <c r="V40" s="81" t="s">
-        <v>755</v>
-      </c>
       <c r="W40" s="91" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="X40" s="105"/>
     </row>
-    <row r="41" spans="1:24" s="18" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="151"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
+    <row r="41" spans="1:24" s="18" customFormat="1" ht="34" customHeight="1">
+      <c r="A41" s="167"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="107">
         <v>39</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F41" s="84" t="s">
         <v>91</v>
@@ -13218,49 +13251,49 @@
       <c r="I41" s="90"/>
       <c r="J41" s="90"/>
       <c r="K41" s="90" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="L41" s="71" t="s">
         <v>256</v>
       </c>
       <c r="M41" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N41" s="90"/>
       <c r="O41" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P41" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="Q41" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="R41" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="S41" s="80" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="T41" s="86" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="U41" s="81" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="V41" s="81"/>
       <c r="W41" s="91"/>
       <c r="X41" s="105"/>
     </row>
-    <row r="42" spans="1:24" s="18" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
+    <row r="42" spans="1:24" s="18" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A42" s="167"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="107">
         <v>40</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>91</v>
@@ -13278,44 +13311,44 @@
         <v>256</v>
       </c>
       <c r="M42" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N42" s="90"/>
       <c r="O42" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P42" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="Q42" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="R42" s="90" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="S42" s="80" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="T42" s="86" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="U42" s="81" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="V42" s="81" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="W42" s="91" t="s">
         <v>260</v>
       </c>
       <c r="X42" s="105"/>
     </row>
-    <row r="43" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
-      <c r="B43" s="149" t="s">
+    <row r="43" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A43" s="167"/>
+      <c r="B43" s="152" t="s">
         <v>371</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="C43" s="120" t="s">
         <v>372</v>
       </c>
       <c r="D43" s="107">
@@ -13356,10 +13389,10 @@
       <c r="W43" s="34"/>
       <c r="X43" s="30"/>
     </row>
-    <row r="44" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="121" t="s">
+    <row r="44" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A44" s="167"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="120" t="s">
         <v>375</v>
       </c>
       <c r="D44" s="107">
@@ -13400,10 +13433,10 @@
       <c r="W44" s="34"/>
       <c r="X44" s="30"/>
     </row>
-    <row r="45" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="151"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="121" t="s">
+    <row r="45" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A45" s="167"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="120" t="s">
         <v>378</v>
       </c>
       <c r="D45" s="107">
@@ -13444,12 +13477,12 @@
       <c r="W45" s="34"/>
       <c r="X45" s="30"/>
     </row>
-    <row r="46" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="151"/>
-      <c r="B46" s="149" t="s">
+    <row r="46" spans="1:24" s="18" customFormat="1" ht="31" customHeight="1">
+      <c r="A46" s="167"/>
+      <c r="B46" s="152" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="120" t="s">
         <v>381</v>
       </c>
       <c r="D46" s="107">
@@ -13490,10 +13523,10 @@
       <c r="W46" s="34"/>
       <c r="X46" s="30"/>
     </row>
-    <row r="47" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="151"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="120" t="s">
+    <row r="47" spans="1:24" s="18" customFormat="1" ht="24.5" customHeight="1">
+      <c r="A47" s="167"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="119" t="s">
         <v>383</v>
       </c>
       <c r="D47" s="107">
@@ -13534,10 +13567,10 @@
       <c r="W47" s="34"/>
       <c r="X47" s="30"/>
     </row>
-    <row r="48" spans="1:24" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="120" t="s">
+    <row r="48" spans="1:24" s="18" customFormat="1" ht="35.5" customHeight="1">
+      <c r="A48" s="167"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="119" t="s">
         <v>385</v>
       </c>
       <c r="D48" s="107">
@@ -13578,18 +13611,20 @@
       <c r="W48" s="34"/>
       <c r="X48" s="30"/>
     </row>
-    <row r="49" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="151"/>
-      <c r="B49" s="149" t="s">
+    <row r="49" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A49" s="167"/>
+      <c r="B49" s="158" t="s">
+        <v>876</v>
+      </c>
+      <c r="C49" s="152" t="s">
         <v>386</v>
-      </c>
-      <c r="C49" s="122" t="s">
-        <v>387</v>
       </c>
       <c r="D49" s="107">
         <v>47</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="121" t="s">
+        <v>387</v>
+      </c>
       <c r="F49" s="30" t="s">
         <v>376</v>
       </c>
@@ -13624,27 +13659,27 @@
       <c r="W49" s="34"/>
       <c r="X49" s="30"/>
     </row>
-    <row r="50" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="151"/>
-      <c r="B50" s="149"/>
-      <c r="C50" s="29" t="s">
-        <v>849</v>
-      </c>
+    <row r="50" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A50" s="167"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="153"/>
       <c r="D50" s="107">
         <v>48</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="125" t="s">
+        <v>843</v>
+      </c>
       <c r="F50" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G50" s="113" t="s">
+      <c r="G50" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H50" s="110"/>
       <c r="I50" s="110"/>
       <c r="J50" s="110"/>
       <c r="K50" s="110"/>
-      <c r="L50" s="113" t="s">
+      <c r="L50" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M50" s="110"/>
@@ -13657,27 +13692,27 @@
         <v>296</v>
       </c>
       <c r="T50" s="111" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="U50" s="111" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="V50" s="111" t="s">
-        <v>851</v>
-      </c>
-      <c r="W50" s="114"/>
+        <v>845</v>
+      </c>
+      <c r="W50" s="113"/>
       <c r="X50" s="109"/>
     </row>
-    <row r="51" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="151"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="120" t="s">
-        <v>389</v>
-      </c>
+    <row r="51" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A51" s="167"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="153"/>
       <c r="D51" s="107">
         <v>49</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="119" t="s">
+        <v>389</v>
+      </c>
       <c r="F51" s="30" t="s">
         <v>91</v>
       </c>
@@ -13712,16 +13747,16 @@
       <c r="W51" s="34"/>
       <c r="X51" s="30"/>
     </row>
-    <row r="52" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="151"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="122" t="s">
-        <v>390</v>
-      </c>
+    <row r="52" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A52" s="167"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="153"/>
       <c r="D52" s="107">
         <v>50</v>
       </c>
-      <c r="E52" s="29"/>
+      <c r="E52" s="121" t="s">
+        <v>390</v>
+      </c>
       <c r="F52" s="30" t="s">
         <v>376</v>
       </c>
@@ -13756,27 +13791,27 @@
       <c r="W52" s="34"/>
       <c r="X52" s="30"/>
     </row>
-    <row r="53" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="151"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="29" t="s">
-        <v>853</v>
-      </c>
+    <row r="53" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A53" s="167"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="153"/>
       <c r="D53" s="107">
         <v>51</v>
       </c>
-      <c r="E53" s="108"/>
+      <c r="E53" s="125" t="s">
+        <v>847</v>
+      </c>
       <c r="F53" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G53" s="113" t="s">
+      <c r="G53" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H53" s="110"/>
       <c r="I53" s="110"/>
       <c r="J53" s="110"/>
       <c r="K53" s="110"/>
-      <c r="L53" s="113" t="s">
+      <c r="L53" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M53" s="110"/>
@@ -13795,32 +13830,32 @@
         <v>373</v>
       </c>
       <c r="V53" s="111" t="s">
-        <v>854</v>
-      </c>
-      <c r="W53" s="114"/>
+        <v>848</v>
+      </c>
+      <c r="W53" s="113"/>
       <c r="X53" s="109"/>
     </row>
-    <row r="54" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="151"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="120" t="s">
-        <v>392</v>
-      </c>
+    <row r="54" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A54" s="167"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="154"/>
       <c r="D54" s="107">
         <v>52</v>
       </c>
-      <c r="E54" s="29"/>
+      <c r="E54" s="119" t="s">
+        <v>392</v>
+      </c>
       <c r="F54" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="113" t="s">
+      <c r="G54" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H54" s="106"/>
       <c r="I54" s="106"/>
       <c r="J54" s="106"/>
       <c r="K54" s="106"/>
-      <c r="L54" s="113" t="s">
+      <c r="L54" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M54" s="106"/>
@@ -13841,32 +13876,32 @@
       <c r="V54" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="W54" s="114"/>
+      <c r="W54" s="113"/>
       <c r="X54" s="30"/>
     </row>
-    <row r="55" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="151"/>
-      <c r="B55" s="150" t="s">
+    <row r="55" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A55" s="167"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="155" t="s">
         <v>393</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>394</v>
       </c>
       <c r="D55" s="107">
         <v>53</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="125" t="s">
+        <v>394</v>
+      </c>
       <c r="F55" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="G55" s="113" t="s">
+      <c r="G55" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H55" s="106"/>
       <c r="I55" s="106"/>
       <c r="J55" s="106"/>
       <c r="K55" s="106"/>
-      <c r="L55" s="113" t="s">
+      <c r="L55" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M55" s="106"/>
@@ -13887,30 +13922,30 @@
       <c r="V55" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="W55" s="114"/>
+      <c r="W55" s="113"/>
       <c r="X55" s="30"/>
     </row>
-    <row r="56" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="151"/>
-      <c r="B56" s="150"/>
-      <c r="C56" s="108" t="s">
-        <v>855</v>
-      </c>
+    <row r="56" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A56" s="167"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="156"/>
       <c r="D56" s="107">
         <v>54</v>
       </c>
-      <c r="E56" s="108"/>
+      <c r="E56" s="108" t="s">
+        <v>849</v>
+      </c>
       <c r="F56" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G56" s="113" t="s">
+      <c r="G56" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H56" s="110"/>
       <c r="I56" s="110"/>
       <c r="J56" s="110"/>
       <c r="K56" s="110"/>
-      <c r="L56" s="113" t="s">
+      <c r="L56" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M56" s="110"/>
@@ -13929,32 +13964,32 @@
         <v>373</v>
       </c>
       <c r="V56" s="111" t="s">
-        <v>856</v>
-      </c>
-      <c r="W56" s="114"/>
+        <v>850</v>
+      </c>
+      <c r="W56" s="113"/>
       <c r="X56" s="109"/>
     </row>
-    <row r="57" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="151"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="29" t="s">
-        <v>396</v>
-      </c>
+    <row r="57" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A57" s="167"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="157"/>
       <c r="D57" s="107">
         <v>55</v>
       </c>
-      <c r="E57" s="29"/>
+      <c r="E57" s="125" t="s">
+        <v>396</v>
+      </c>
       <c r="F57" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="113" t="s">
+      <c r="G57" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H57" s="106"/>
       <c r="I57" s="106"/>
       <c r="J57" s="106"/>
       <c r="K57" s="106"/>
-      <c r="L57" s="113" t="s">
+      <c r="L57" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M57" s="106"/>
@@ -13975,32 +14010,32 @@
       <c r="V57" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="W57" s="114"/>
+      <c r="W57" s="113"/>
       <c r="X57" s="30"/>
     </row>
-    <row r="58" spans="1:28" s="115" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="151"/>
-      <c r="B58" s="150" t="s">
+    <row r="58" spans="1:28" s="114" customFormat="1" ht="27" customHeight="1">
+      <c r="A58" s="167"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="155" t="s">
         <v>397</v>
-      </c>
-      <c r="C58" s="120" t="s">
-        <v>398</v>
       </c>
       <c r="D58" s="107">
         <v>56</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="E58" s="119" t="s">
+        <v>398</v>
+      </c>
       <c r="F58" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="G58" s="113" t="s">
+      <c r="G58" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H58" s="106"/>
       <c r="I58" s="106"/>
       <c r="J58" s="106"/>
       <c r="K58" s="106"/>
-      <c r="L58" s="113" t="s">
+      <c r="L58" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M58" s="106"/>
@@ -14021,30 +14056,30 @@
       <c r="V58" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="W58" s="114"/>
+      <c r="W58" s="113"/>
       <c r="X58" s="30"/>
     </row>
-    <row r="59" spans="1:28" s="115" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="151"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="108" t="s">
-        <v>857</v>
-      </c>
+    <row r="59" spans="1:28" s="114" customFormat="1" ht="27" customHeight="1">
+      <c r="A59" s="167"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="107">
         <v>57</v>
       </c>
-      <c r="E59" s="108"/>
+      <c r="E59" s="108" t="s">
+        <v>851</v>
+      </c>
       <c r="F59" s="109" t="s">
         <v>363</v>
       </c>
-      <c r="G59" s="113" t="s">
+      <c r="G59" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H59" s="110"/>
       <c r="I59" s="110"/>
       <c r="J59" s="110"/>
       <c r="K59" s="110"/>
-      <c r="L59" s="113" t="s">
+      <c r="L59" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M59" s="110"/>
@@ -14054,10 +14089,10 @@
       <c r="Q59" s="110"/>
       <c r="R59" s="110"/>
       <c r="S59" s="110" t="s">
-        <v>858</v>
-      </c>
-      <c r="T59" s="117" t="s">
-        <v>859</v>
+        <v>852</v>
+      </c>
+      <c r="T59" s="116" t="s">
+        <v>853</v>
       </c>
       <c r="U59" s="111" t="s">
         <v>399</v>
@@ -14065,30 +14100,30 @@
       <c r="V59" s="111" t="s">
         <v>400</v>
       </c>
-      <c r="W59" s="114"/>
+      <c r="W59" s="113"/>
       <c r="X59" s="109"/>
     </row>
-    <row r="60" spans="1:28" s="115" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="151"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="120" t="s">
-        <v>860</v>
-      </c>
+    <row r="60" spans="1:28" s="114" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A60" s="167"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="156"/>
       <c r="D60" s="107">
         <v>58</v>
       </c>
-      <c r="E60" s="108"/>
+      <c r="E60" s="119" t="s">
+        <v>854</v>
+      </c>
       <c r="F60" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="G60" s="113" t="s">
+      <c r="G60" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H60" s="110"/>
       <c r="I60" s="110"/>
       <c r="J60" s="110"/>
       <c r="K60" s="110"/>
-      <c r="L60" s="113" t="s">
+      <c r="L60" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M60" s="110"/>
@@ -14098,10 +14133,10 @@
       <c r="Q60" s="110"/>
       <c r="R60" s="110"/>
       <c r="S60" s="110" t="s">
-        <v>858</v>
-      </c>
-      <c r="T60" s="117" t="s">
-        <v>861</v>
+        <v>852</v>
+      </c>
+      <c r="T60" s="116" t="s">
+        <v>855</v>
       </c>
       <c r="U60" s="111" t="s">
         <v>399</v>
@@ -14109,30 +14144,30 @@
       <c r="V60" s="111" t="s">
         <v>400</v>
       </c>
-      <c r="W60" s="114"/>
+      <c r="W60" s="113"/>
       <c r="X60" s="109"/>
     </row>
-    <row r="61" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="151"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="120" t="s">
-        <v>401</v>
-      </c>
+    <row r="61" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A61" s="167"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="156"/>
       <c r="D61" s="107">
         <v>59</v>
       </c>
-      <c r="E61" s="29"/>
+      <c r="E61" s="119" t="s">
+        <v>401</v>
+      </c>
       <c r="F61" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="G61" s="113" t="s">
+      <c r="G61" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
       <c r="J61" s="106"/>
       <c r="K61" s="106"/>
-      <c r="L61" s="113" t="s">
+      <c r="L61" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M61" s="106"/>
@@ -14153,30 +14188,30 @@
       <c r="V61" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="W61" s="114"/>
+      <c r="W61" s="113"/>
       <c r="X61" s="30"/>
     </row>
-    <row r="62" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="151"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="29" t="s">
-        <v>862</v>
-      </c>
+    <row r="62" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A62" s="167"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="156"/>
       <c r="D62" s="107">
         <v>60</v>
       </c>
-      <c r="E62" s="108"/>
+      <c r="E62" s="125" t="s">
+        <v>856</v>
+      </c>
       <c r="F62" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G62" s="113" t="s">
+      <c r="G62" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H62" s="110"/>
       <c r="I62" s="110"/>
       <c r="J62" s="110"/>
       <c r="K62" s="110"/>
-      <c r="L62" s="113" t="s">
+      <c r="L62" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M62" s="110"/>
@@ -14195,32 +14230,32 @@
         <v>373</v>
       </c>
       <c r="V62" s="111" t="s">
-        <v>863</v>
-      </c>
-      <c r="W62" s="114"/>
+        <v>857</v>
+      </c>
+      <c r="W62" s="113"/>
       <c r="X62" s="109"/>
     </row>
-    <row r="63" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="151"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="108" t="s">
-        <v>403</v>
-      </c>
+    <row r="63" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A63" s="167"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="157"/>
       <c r="D63" s="107">
         <v>61</v>
       </c>
-      <c r="E63" s="29"/>
+      <c r="E63" s="108" t="s">
+        <v>403</v>
+      </c>
       <c r="F63" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="113" t="s">
+      <c r="G63" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
       <c r="J63" s="106"/>
       <c r="K63" s="106"/>
-      <c r="L63" s="113" t="s">
+      <c r="L63" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M63" s="106"/>
@@ -14241,44 +14276,44 @@
       <c r="V63" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="W63" s="114"/>
+      <c r="W63" s="113"/>
       <c r="X63" s="30"/>
-      <c r="Z63" s="116"/>
-      <c r="AA63" s="116"/>
-      <c r="AB63" s="116"/>
-    </row>
-    <row r="64" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="151"/>
-      <c r="B64" s="152" t="s">
-        <v>404</v>
-      </c>
-      <c r="C64" s="120" t="s">
-        <v>405</v>
-      </c>
-      <c r="D64" s="107">
-        <v>62</v>
-      </c>
-      <c r="E64" s="29"/>
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="115"/>
+      <c r="AB63" s="115"/>
+    </row>
+    <row r="64" spans="1:28" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A64" s="167"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="155" t="s">
+        <v>869</v>
+      </c>
+      <c r="D64" s="127">
+        <v>71</v>
+      </c>
+      <c r="E64" s="108" t="s">
+        <v>413</v>
+      </c>
       <c r="F64" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="G64" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="106"/>
-      <c r="P64" s="106"/>
-      <c r="Q64" s="106"/>
-      <c r="R64" s="106"/>
-      <c r="S64" s="106" t="s">
+      <c r="G64" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M64" s="126"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="126"/>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
+      <c r="S64" s="126" t="s">
         <v>296</v>
       </c>
       <c r="T64" s="33" t="s">
@@ -14288,32 +14323,32 @@
         <v>373</v>
       </c>
       <c r="V64" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="W64" s="114"/>
+        <v>414</v>
+      </c>
+      <c r="W64" s="113"/>
       <c r="X64" s="30"/>
     </row>
-    <row r="65" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="151"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="29" t="s">
-        <v>864</v>
-      </c>
-      <c r="D65" s="107">
-        <v>63</v>
-      </c>
-      <c r="E65" s="108"/>
+    <row r="65" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A65" s="167"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="127">
+        <v>72</v>
+      </c>
+      <c r="E65" s="125" t="s">
+        <v>865</v>
+      </c>
       <c r="F65" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G65" s="113" t="s">
+      <c r="G65" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H65" s="110"/>
       <c r="I65" s="110"/>
       <c r="J65" s="110"/>
       <c r="K65" s="110"/>
-      <c r="L65" s="113" t="s">
+      <c r="L65" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M65" s="110"/>
@@ -14332,76 +14367,78 @@
         <v>373</v>
       </c>
       <c r="V65" s="111" t="s">
-        <v>865</v>
-      </c>
-      <c r="W65" s="114"/>
+        <v>866</v>
+      </c>
+      <c r="W65" s="113"/>
       <c r="X65" s="109"/>
     </row>
-    <row r="66" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="151"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="123" t="s">
-        <v>407</v>
-      </c>
-      <c r="D66" s="107">
-        <v>64</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30" t="s">
+    <row r="66" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A66" s="167"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="127">
+        <v>73</v>
+      </c>
+      <c r="E66" s="125" t="s">
+        <v>867</v>
+      </c>
+      <c r="F66" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="M66" s="106"/>
-      <c r="N66" s="106"/>
-      <c r="O66" s="106"/>
-      <c r="P66" s="106"/>
-      <c r="Q66" s="106"/>
-      <c r="R66" s="106"/>
-      <c r="S66" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="T66" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="U66" s="33" t="s">
+      <c r="G66" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+      <c r="S66" s="110" t="s">
+        <v>852</v>
+      </c>
+      <c r="T66" s="111" t="s">
+        <v>855</v>
+      </c>
+      <c r="U66" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="V66" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="W66" s="114"/>
-      <c r="X66" s="30"/>
-    </row>
-    <row r="67" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="151"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="120" t="s">
-        <v>408</v>
+      <c r="V66" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="W66" s="113"/>
+      <c r="X66" s="109"/>
+    </row>
+    <row r="67" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A67" s="167"/>
+      <c r="B67" s="155" t="s">
+        <v>877</v>
+      </c>
+      <c r="C67" s="119" t="s">
+        <v>404</v>
       </c>
       <c r="D67" s="107">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="G67" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H67" s="106"/>
       <c r="I67" s="106"/>
       <c r="J67" s="106"/>
       <c r="K67" s="106"/>
-      <c r="L67" s="113" t="s">
+      <c r="L67" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M67" s="106"/>
@@ -14417,35 +14454,35 @@
         <v>297</v>
       </c>
       <c r="U67" s="33" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="V67" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="W67" s="114"/>
+        <v>405</v>
+      </c>
+      <c r="W67" s="113"/>
       <c r="X67" s="30"/>
     </row>
-    <row r="68" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="151"/>
-      <c r="B68" s="153"/>
+    <row r="68" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A68" s="167"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="29" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D68" s="107">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E68" s="108"/>
       <c r="F68" s="109" t="s">
-        <v>409</v>
-      </c>
-      <c r="G68" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="G68" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H68" s="110"/>
       <c r="I68" s="110"/>
       <c r="J68" s="110"/>
       <c r="K68" s="110"/>
-      <c r="L68" s="113" t="s">
+      <c r="L68" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M68" s="110"/>
@@ -14461,81 +14498,79 @@
         <v>297</v>
       </c>
       <c r="U68" s="111" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="V68" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="W68" s="114"/>
+        <v>859</v>
+      </c>
+      <c r="W68" s="113"/>
       <c r="X68" s="109"/>
     </row>
-    <row r="69" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="151"/>
-      <c r="B69" s="154"/>
-      <c r="C69" s="120" t="s">
-        <v>867</v>
+    <row r="69" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A69" s="167"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="122" t="s">
+        <v>406</v>
       </c>
       <c r="D69" s="107">
-        <v>67</v>
-      </c>
-      <c r="E69" s="108"/>
-      <c r="F69" s="109" t="s">
-        <v>868</v>
-      </c>
-      <c r="G69" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
-      <c r="K69" s="110"/>
-      <c r="L69" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="M69" s="110"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="110"/>
-      <c r="P69" s="110"/>
-      <c r="Q69" s="110"/>
-      <c r="R69" s="110"/>
-      <c r="S69" s="110" t="s">
-        <v>858</v>
-      </c>
-      <c r="T69" s="111" t="s">
-        <v>861</v>
-      </c>
-      <c r="U69" s="111" t="s">
-        <v>399</v>
-      </c>
-      <c r="V69" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="W69" s="114"/>
-      <c r="X69" s="109"/>
-    </row>
-    <row r="70" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="151"/>
-      <c r="B70" s="150" t="s">
-        <v>411</v>
-      </c>
-      <c r="C70" s="108" t="s">
-        <v>412</v>
+        <v>64</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="T69" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="U69" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="V69" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="W69" s="113"/>
+      <c r="X69" s="30"/>
+    </row>
+    <row r="70" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A70" s="167"/>
+      <c r="B70" s="156"/>
+      <c r="C70" s="119" t="s">
+        <v>407</v>
       </c>
       <c r="D70" s="107">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E70" s="29"/>
       <c r="F70" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="G70" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="G70" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H70" s="106"/>
       <c r="I70" s="106"/>
       <c r="J70" s="106"/>
       <c r="K70" s="106"/>
-      <c r="L70" s="113" t="s">
+      <c r="L70" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M70" s="106"/>
@@ -14551,35 +14586,35 @@
         <v>297</v>
       </c>
       <c r="U70" s="33" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="V70" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="W70" s="114"/>
+        <v>409</v>
+      </c>
+      <c r="W70" s="113"/>
       <c r="X70" s="30"/>
     </row>
-    <row r="71" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="151"/>
-      <c r="B71" s="150"/>
+    <row r="71" spans="1:24" s="114" customFormat="1" ht="47" customHeight="1">
+      <c r="A71" s="167"/>
+      <c r="B71" s="156"/>
       <c r="C71" s="29" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D71" s="107">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E71" s="108"/>
       <c r="F71" s="109" t="s">
-        <v>376</v>
-      </c>
-      <c r="G71" s="113" t="s">
+        <v>408</v>
+      </c>
+      <c r="G71" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H71" s="110"/>
       <c r="I71" s="110"/>
       <c r="J71" s="110"/>
       <c r="K71" s="110"/>
-      <c r="L71" s="113" t="s">
+      <c r="L71" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M71" s="110"/>
@@ -14595,81 +14630,83 @@
         <v>297</v>
       </c>
       <c r="U71" s="111" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="V71" s="111" t="s">
-        <v>870</v>
-      </c>
-      <c r="W71" s="114"/>
+        <v>409</v>
+      </c>
+      <c r="W71" s="113"/>
       <c r="X71" s="109"/>
     </row>
-    <row r="72" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="151"/>
-      <c r="B72" s="150"/>
-      <c r="C72" s="29" t="s">
-        <v>414</v>
+    <row r="72" spans="1:24" s="114" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A72" s="167"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="119" t="s">
+        <v>861</v>
       </c>
       <c r="D72" s="107">
-        <v>70</v>
-      </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H72" s="106"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="M72" s="106"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="106"/>
-      <c r="P72" s="106"/>
-      <c r="Q72" s="106"/>
-      <c r="R72" s="106"/>
-      <c r="S72" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="T72" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="U72" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="V72" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="108"/>
+      <c r="F72" s="109" t="s">
+        <v>862</v>
+      </c>
+      <c r="G72" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M72" s="110"/>
+      <c r="N72" s="110"/>
+      <c r="O72" s="110"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+      <c r="S72" s="110" t="s">
+        <v>852</v>
+      </c>
+      <c r="T72" s="111" t="s">
+        <v>855</v>
+      </c>
+      <c r="U72" s="111" t="s">
+        <v>399</v>
+      </c>
+      <c r="V72" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="W72" s="113"/>
+      <c r="X72" s="109"/>
+    </row>
+    <row r="73" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A73" s="167"/>
+      <c r="B73" s="155" t="s">
+        <v>878</v>
+      </c>
+      <c r="C73" s="108" t="s">
+        <v>410</v>
+      </c>
+      <c r="D73" s="107">
+        <v>68</v>
+      </c>
+      <c r="E73" s="108" t="s">
         <v>413</v>
       </c>
-      <c r="W72" s="114"/>
-      <c r="X72" s="30"/>
-    </row>
-    <row r="73" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="151"/>
-      <c r="B73" s="155" t="s">
-        <v>875</v>
-      </c>
-      <c r="C73" s="108" t="s">
-        <v>415</v>
-      </c>
-      <c r="D73" s="107">
-        <v>71</v>
-      </c>
-      <c r="E73" s="29"/>
       <c r="F73" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="G73" s="113" t="s">
+      <c r="G73" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
       <c r="J73" s="106"/>
       <c r="K73" s="106"/>
-      <c r="L73" s="113" t="s">
+      <c r="L73" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M73" s="106"/>
@@ -14688,32 +14725,34 @@
         <v>373</v>
       </c>
       <c r="V73" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="W73" s="114"/>
+        <v>411</v>
+      </c>
+      <c r="W73" s="113"/>
       <c r="X73" s="30"/>
     </row>
-    <row r="74" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="151"/>
+    <row r="74" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A74" s="167"/>
       <c r="B74" s="156"/>
       <c r="C74" s="29" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D74" s="107">
-        <v>72</v>
-      </c>
-      <c r="E74" s="108"/>
+        <v>69</v>
+      </c>
+      <c r="E74" s="125" t="s">
+        <v>865</v>
+      </c>
       <c r="F74" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="G74" s="113" t="s">
+      <c r="G74" s="112" t="s">
         <v>256</v>
       </c>
       <c r="H74" s="110"/>
       <c r="I74" s="110"/>
       <c r="J74" s="110"/>
       <c r="K74" s="110"/>
-      <c r="L74" s="113" t="s">
+      <c r="L74" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M74" s="110"/>
@@ -14732,82 +14771,82 @@
         <v>373</v>
       </c>
       <c r="V74" s="111" t="s">
-        <v>872</v>
-      </c>
-      <c r="W74" s="114"/>
+        <v>864</v>
+      </c>
+      <c r="W74" s="113"/>
       <c r="X74" s="109"/>
     </row>
-    <row r="75" spans="1:28" s="115" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="151"/>
+    <row r="75" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A75" s="167"/>
       <c r="B75" s="157"/>
       <c r="C75" s="29" t="s">
-        <v>873</v>
+        <v>412</v>
       </c>
       <c r="D75" s="107">
-        <v>73</v>
-      </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="125" t="s">
+        <v>867</v>
+      </c>
+      <c r="F75" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="110"/>
-      <c r="L75" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="M75" s="110"/>
-      <c r="N75" s="110"/>
-      <c r="O75" s="110"/>
-      <c r="P75" s="110"/>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="110"/>
-      <c r="S75" s="110" t="s">
-        <v>858</v>
-      </c>
-      <c r="T75" s="111" t="s">
-        <v>861</v>
-      </c>
-      <c r="U75" s="111" t="s">
+      <c r="G75" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
+      <c r="O75" s="106"/>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="106"/>
+      <c r="R75" s="106"/>
+      <c r="S75" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="T75" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="U75" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="V75" s="111" t="s">
-        <v>874</v>
-      </c>
-      <c r="W75" s="114"/>
-      <c r="X75" s="109"/>
-    </row>
-    <row r="76" spans="1:28" s="115" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="151"/>
-      <c r="B76" s="149" t="s">
-        <v>417</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>418</v>
+      <c r="V75" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="W75" s="113"/>
+      <c r="X75" s="30"/>
+    </row>
+    <row r="76" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A76" s="167"/>
+      <c r="B76" s="155" t="s">
+        <v>879</v>
+      </c>
+      <c r="C76" s="155" t="s">
+        <v>869</v>
       </c>
       <c r="D76" s="107">
-        <v>74</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>419</v>
+        <v>71</v>
+      </c>
+      <c r="E76" s="108" t="s">
+        <v>413</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="G76" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="H76" s="113" t="s">
-        <v>256</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G76" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="106"/>
       <c r="I76" s="106"/>
       <c r="J76" s="106"/>
       <c r="K76" s="106"/>
-      <c r="L76" s="113" t="s">
+      <c r="L76" s="112" t="s">
         <v>256</v>
       </c>
       <c r="M76" s="106"/>
@@ -14823,191 +14862,175 @@
         <v>297</v>
       </c>
       <c r="U76" s="33" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="V76" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="W76" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="X76" s="30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="151"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="108"/>
+        <v>414</v>
+      </c>
+      <c r="W76" s="113"/>
+      <c r="X76" s="30"/>
+    </row>
+    <row r="77" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A77" s="167"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="156"/>
       <c r="D77" s="107">
-        <v>75</v>
-      </c>
-      <c r="E77" s="97" t="s">
-        <v>650</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="G77" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H77" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="I77" s="82"/>
-      <c r="J77" s="82"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="M77" s="82"/>
-      <c r="N77" s="82"/>
-      <c r="O77" s="82"/>
-      <c r="P77" s="82"/>
-      <c r="Q77" s="82"/>
-      <c r="R77" s="82"/>
-      <c r="S77" s="80" t="s">
-        <v>674</v>
-      </c>
-      <c r="T77" s="81" t="s">
-        <v>675</v>
-      </c>
-      <c r="U77" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="V77" s="81" t="s">
-        <v>673</v>
-      </c>
-      <c r="W77" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="X77" s="30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="151"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="E77" s="125" t="s">
+        <v>865</v>
+      </c>
+      <c r="F77" s="109" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="110"/>
+      <c r="S77" s="110" t="s">
+        <v>296</v>
+      </c>
+      <c r="T77" s="111" t="s">
+        <v>297</v>
+      </c>
+      <c r="U77" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="V77" s="111" t="s">
+        <v>866</v>
+      </c>
+      <c r="W77" s="113"/>
+      <c r="X77" s="109"/>
+    </row>
+    <row r="78" spans="1:24" s="114" customFormat="1" ht="16" customHeight="1">
+      <c r="A78" s="167"/>
+      <c r="B78" s="157"/>
+      <c r="C78" s="157"/>
       <c r="D78" s="107">
-        <v>76</v>
-      </c>
-      <c r="E78" s="97" t="s">
-        <v>424</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="G78" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H78" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="M78" s="82"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-      <c r="P78" s="82"/>
-      <c r="Q78" s="82"/>
-      <c r="R78" s="82"/>
-      <c r="S78" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="T78" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="U78" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="V78" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="W78" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="X78" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z78" s="74"/>
-      <c r="AA78" s="74"/>
-      <c r="AB78" s="74"/>
-    </row>
-    <row r="79" spans="1:28" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="151"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="E78" s="125" t="s">
+        <v>867</v>
+      </c>
+      <c r="F78" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="110"/>
+      <c r="K78" s="110"/>
+      <c r="L78" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M78" s="110"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="110"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="110"/>
+      <c r="R78" s="110"/>
+      <c r="S78" s="110" t="s">
+        <v>852</v>
+      </c>
+      <c r="T78" s="111" t="s">
+        <v>855</v>
+      </c>
+      <c r="U78" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="V78" s="111" t="s">
+        <v>868</v>
+      </c>
+      <c r="W78" s="113"/>
+      <c r="X78" s="109"/>
+    </row>
+    <row r="79" spans="1:24" s="114" customFormat="1" ht="39" customHeight="1">
+      <c r="A79" s="167"/>
+      <c r="B79" s="152" t="s">
+        <v>880</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>415</v>
+      </c>
       <c r="D79" s="107">
-        <v>77</v>
-      </c>
-      <c r="E79" s="97" t="s">
-        <v>427</v>
+        <v>74</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>416</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="G79" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H79" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="I79" s="82"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="82"/>
-      <c r="L79" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="M79" s="82"/>
-      <c r="N79" s="82"/>
-      <c r="O79" s="82"/>
-      <c r="P79" s="82"/>
-      <c r="Q79" s="82"/>
-      <c r="R79" s="82"/>
-      <c r="S79" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G79" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="I79" s="106"/>
+      <c r="J79" s="106"/>
+      <c r="K79" s="106"/>
+      <c r="L79" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="M79" s="106"/>
+      <c r="N79" s="106"/>
+      <c r="O79" s="106"/>
+      <c r="P79" s="106"/>
+      <c r="Q79" s="106"/>
+      <c r="R79" s="106"/>
+      <c r="S79" s="106" t="s">
         <v>296</v>
       </c>
       <c r="T79" s="33" t="s">
         <v>297</v>
       </c>
       <c r="U79" s="33" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="V79" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W79" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="W79" s="113" t="s">
         <v>260</v>
       </c>
       <c r="X79" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-    </row>
-    <row r="80" spans="1:28" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="151"/>
-      <c r="B80" s="149"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" s="18" customFormat="1" ht="39" customHeight="1">
+      <c r="A80" s="167"/>
+      <c r="B80" s="153"/>
       <c r="C80" s="108"/>
       <c r="D80" s="107">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E80" s="97" t="s">
-        <v>430</v>
+        <v>646</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="G80" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H80" s="82"/>
+      <c r="H80" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="I80" s="82"/>
       <c r="J80" s="82"/>
       <c r="K80" s="82"/>
@@ -15020,45 +15043,44 @@
       <c r="P80" s="82"/>
       <c r="Q80" s="82"/>
       <c r="R80" s="82"/>
-      <c r="S80" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="T80" s="33" t="s">
-        <v>297</v>
+      <c r="S80" s="80" t="s">
+        <v>669</v>
+      </c>
+      <c r="T80" s="81" t="s">
+        <v>670</v>
       </c>
       <c r="U80" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="V80" s="33" t="s">
-        <v>432</v>
+        <v>420</v>
+      </c>
+      <c r="V80" s="81" t="s">
+        <v>668</v>
       </c>
       <c r="W80" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X80" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z80" s="74"/>
-      <c r="AA80" s="74"/>
-      <c r="AB80" s="74"/>
-    </row>
-    <row r="81" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="151"/>
-      <c r="B81" s="149"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" s="18" customFormat="1" ht="39" customHeight="1">
+      <c r="A81" s="167"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="29"/>
       <c r="D81" s="107">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E81" s="97" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="G81" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H81" s="82"/>
+      <c r="H81" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="I81" s="82"/>
       <c r="J81" s="82"/>
       <c r="K81" s="82"/>
@@ -15072,44 +15094,46 @@
       <c r="Q81" s="82"/>
       <c r="R81" s="82"/>
       <c r="S81" s="32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="T81" s="33" t="s">
-        <v>434</v>
+        <v>297</v>
       </c>
       <c r="U81" s="33" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="V81" s="33" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="W81" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X81" s="30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Z81" s="74"/>
       <c r="AA81" s="74"/>
       <c r="AB81" s="74"/>
     </row>
-    <row r="82" spans="1:46" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="151"/>
-      <c r="B82" s="149"/>
+    <row r="82" spans="1:46" s="18" customFormat="1" ht="39" customHeight="1">
+      <c r="A82" s="167"/>
+      <c r="B82" s="153"/>
       <c r="C82" s="29"/>
       <c r="D82" s="107">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E82" s="97" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="G82" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H82" s="82"/>
+      <c r="H82" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="I82" s="82"/>
       <c r="J82" s="82"/>
       <c r="K82" s="82"/>
@@ -15129,42 +15153,38 @@
         <v>297</v>
       </c>
       <c r="U82" s="33" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="V82" s="33" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="W82" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X82" s="30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Z82" s="74"/>
       <c r="AA82" s="74"/>
       <c r="AB82" s="74"/>
     </row>
-    <row r="83" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="151"/>
-      <c r="B83" s="149"/>
-      <c r="C83" s="149" t="s">
-        <v>440</v>
-      </c>
+    <row r="83" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A83" s="167"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="108"/>
       <c r="D83" s="107">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E83" s="97" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="G83" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H83" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="H83" s="82"/>
       <c r="I83" s="82"/>
       <c r="J83" s="82"/>
       <c r="K83" s="82"/>
@@ -15184,40 +15204,38 @@
         <v>297</v>
       </c>
       <c r="U83" s="33" t="s">
-        <v>676</v>
+        <v>428</v>
       </c>
       <c r="V83" s="33" t="s">
-        <v>677</v>
+        <v>429</v>
       </c>
       <c r="W83" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X83" s="30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Z83" s="74"/>
       <c r="AA83" s="74"/>
       <c r="AB83" s="74"/>
     </row>
-    <row r="84" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="151"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="149"/>
+    <row r="84" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A84" s="167"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="107">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E84" s="97" t="s">
-        <v>651</v>
+        <v>430</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="G84" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H84" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="H84" s="82"/>
       <c r="I84" s="82"/>
       <c r="J84" s="82"/>
       <c r="K84" s="82"/>
@@ -15231,41 +15249,39 @@
       <c r="Q84" s="82"/>
       <c r="R84" s="82"/>
       <c r="S84" s="32" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="T84" s="33" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
       <c r="U84" s="33" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="V84" s="33" t="s">
-        <v>678</v>
+        <v>433</v>
       </c>
       <c r="W84" s="34" t="s">
         <v>260</v>
       </c>
       <c r="X84" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="76"/>
-    </row>
-    <row r="85" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="151"/>
-      <c r="B85" s="151" t="s">
-        <v>679</v>
-      </c>
-      <c r="C85" s="120" t="s">
-        <v>652</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="Z84" s="74"/>
+      <c r="AA84" s="74"/>
+      <c r="AB84" s="74"/>
+    </row>
+    <row r="85" spans="1:46" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A85" s="167"/>
+      <c r="B85" s="153"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="107">
-        <v>83</v>
-      </c>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72" t="s">
-        <v>273</v>
+        <v>80</v>
+      </c>
+      <c r="E85" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="G85" s="71" t="s">
         <v>256</v>
@@ -15283,60 +15299,49 @@
       <c r="P85" s="82"/>
       <c r="Q85" s="82"/>
       <c r="R85" s="82"/>
-      <c r="S85" s="82" t="s">
+      <c r="S85" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="V85" s="72" t="s">
-        <v>681</v>
-      </c>
-      <c r="W85" s="73" t="s">
+      <c r="T85" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U85" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="V85" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="W85" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="X85" s="70"/>
-      <c r="Y85" s="74"/>
-      <c r="Z85" s="76"/>
-      <c r="AA85" s="76"/>
-      <c r="AB85" s="76"/>
-      <c r="AC85" s="74"/>
-      <c r="AD85" s="74"/>
-      <c r="AE85" s="74"/>
-      <c r="AF85" s="74"/>
-      <c r="AG85" s="74"/>
-      <c r="AH85" s="74"/>
-      <c r="AI85" s="74"/>
-      <c r="AJ85" s="74"/>
-      <c r="AK85" s="74"/>
-      <c r="AL85" s="74"/>
-      <c r="AM85" s="74"/>
-      <c r="AN85" s="74"/>
-      <c r="AO85" s="74"/>
-      <c r="AP85" s="74"/>
-      <c r="AQ85" s="74"/>
-      <c r="AR85" s="74"/>
-      <c r="AS85" s="74"/>
-      <c r="AT85" s="74"/>
-    </row>
-    <row r="86" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="151"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="120" t="s">
-        <v>653</v>
+      <c r="X85" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z85" s="74"/>
+      <c r="AA85" s="74"/>
+      <c r="AB85" s="74"/>
+    </row>
+    <row r="86" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1">
+      <c r="A86" s="167"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="178" t="s">
+        <v>875</v>
       </c>
       <c r="D86" s="107">
-        <v>84</v>
-      </c>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="97" t="s">
+        <v>437</v>
+      </c>
+      <c r="F86" s="30" t="s">
         <v>273</v>
       </c>
       <c r="G86" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H86" s="82"/>
+      <c r="H86" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="I86" s="82"/>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
@@ -15349,60 +15354,47 @@
       <c r="P86" s="82"/>
       <c r="Q86" s="82"/>
       <c r="R86" s="82"/>
-      <c r="S86" s="82" t="s">
+      <c r="S86" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="V86" s="72" t="s">
-        <v>682</v>
-      </c>
-      <c r="W86" s="73" t="s">
+      <c r="T86" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U86" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="V86" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="W86" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="X86" s="70"/>
-      <c r="Y86" s="74"/>
-      <c r="Z86" s="76"/>
-      <c r="AA86" s="76"/>
-      <c r="AB86" s="76"/>
-      <c r="AC86" s="74"/>
-      <c r="AD86" s="74"/>
-      <c r="AE86" s="74"/>
-      <c r="AF86" s="74"/>
-      <c r="AG86" s="74"/>
-      <c r="AH86" s="74"/>
-      <c r="AI86" s="74"/>
-      <c r="AJ86" s="74"/>
-      <c r="AK86" s="74"/>
-      <c r="AL86" s="74"/>
-      <c r="AM86" s="74"/>
-      <c r="AN86" s="74"/>
-      <c r="AO86" s="74"/>
-      <c r="AP86" s="74"/>
-      <c r="AQ86" s="74"/>
-      <c r="AR86" s="74"/>
-      <c r="AS86" s="74"/>
-      <c r="AT86" s="74"/>
-    </row>
-    <row r="87" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="151"/>
-      <c r="B87" s="151"/>
-      <c r="C87" s="120" t="s">
-        <v>654</v>
-      </c>
+      <c r="X86" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z86" s="74"/>
+      <c r="AA86" s="74"/>
+      <c r="AB86" s="74"/>
+    </row>
+    <row r="87" spans="1:46" s="18" customFormat="1" ht="27" customHeight="1">
+      <c r="A87" s="167"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="178"/>
       <c r="D87" s="107">
-        <v>85</v>
-      </c>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72" t="s">
-        <v>443</v>
+        <v>82</v>
+      </c>
+      <c r="E87" s="97" t="s">
+        <v>647</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="G87" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H87" s="82"/>
+      <c r="H87" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="I87" s="82"/>
       <c r="J87" s="82"/>
       <c r="K87" s="82"/>
@@ -15415,57 +15407,42 @@
       <c r="P87" s="82"/>
       <c r="Q87" s="82"/>
       <c r="R87" s="82"/>
-      <c r="S87" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="T87" s="72" t="s">
-        <v>683</v>
-      </c>
-      <c r="U87" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="V87" s="72" t="s">
-        <v>684</v>
-      </c>
-      <c r="W87" s="73" t="s">
+      <c r="S87" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="T87" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U87" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="V87" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="W87" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="X87" s="70"/>
-      <c r="Y87" s="74"/>
+      <c r="X87" s="30" t="s">
+        <v>419</v>
+      </c>
       <c r="Z87" s="76"/>
       <c r="AA87" s="76"/>
       <c r="AB87" s="76"/>
-      <c r="AC87" s="74"/>
-      <c r="AD87" s="74"/>
-      <c r="AE87" s="74"/>
-      <c r="AF87" s="74"/>
-      <c r="AG87" s="74"/>
-      <c r="AH87" s="74"/>
-      <c r="AI87" s="74"/>
-      <c r="AJ87" s="74"/>
-      <c r="AK87" s="74"/>
-      <c r="AL87" s="74"/>
-      <c r="AM87" s="74"/>
-      <c r="AN87" s="74"/>
-      <c r="AO87" s="74"/>
-      <c r="AP87" s="74"/>
-      <c r="AQ87" s="74"/>
-      <c r="AR87" s="74"/>
-      <c r="AS87" s="74"/>
-      <c r="AT87" s="74"/>
-    </row>
-    <row r="88" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="151"/>
-      <c r="B88" s="151"/>
-      <c r="C88" s="120" t="s">
-        <v>655</v>
+    </row>
+    <row r="88" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A88" s="167"/>
+      <c r="B88" s="161" t="s">
+        <v>881</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>648</v>
       </c>
       <c r="D88" s="107">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E88" s="72"/>
       <c r="F88" s="72" t="s">
-        <v>443</v>
+        <v>273</v>
       </c>
       <c r="G88" s="71" t="s">
         <v>256</v>
@@ -15484,22 +15461,23 @@
       <c r="Q88" s="82"/>
       <c r="R88" s="82"/>
       <c r="S88" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="T88" s="72" t="s">
-        <v>685</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="T88" s="72"/>
       <c r="U88" s="72" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="V88" s="72" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="W88" s="73" t="s">
         <v>260</v>
       </c>
       <c r="X88" s="70"/>
       <c r="Y88" s="74"/>
+      <c r="Z88" s="76"/>
+      <c r="AA88" s="76"/>
+      <c r="AB88" s="76"/>
       <c r="AC88" s="74"/>
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
@@ -15519,18 +15497,18 @@
       <c r="AS88" s="74"/>
       <c r="AT88" s="74"/>
     </row>
-    <row r="89" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="151"/>
-      <c r="B89" s="151"/>
-      <c r="C89" s="120" t="s">
-        <v>656</v>
+    <row r="89" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A89" s="167"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="119" t="s">
+        <v>649</v>
       </c>
       <c r="D89" s="107">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E89" s="72"/>
       <c r="F89" s="72" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="G89" s="71" t="s">
         <v>256</v>
@@ -15553,16 +15531,19 @@
       </c>
       <c r="T89" s="72"/>
       <c r="U89" s="72" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="V89" s="72" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="W89" s="73" t="s">
         <v>260</v>
       </c>
       <c r="X89" s="70"/>
       <c r="Y89" s="74"/>
+      <c r="Z89" s="76"/>
+      <c r="AA89" s="76"/>
+      <c r="AB89" s="76"/>
       <c r="AC89" s="74"/>
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
@@ -15582,18 +15563,18 @@
       <c r="AS89" s="74"/>
       <c r="AT89" s="74"/>
     </row>
-    <row r="90" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="151"/>
-      <c r="B90" s="151"/>
-      <c r="C90" s="120" t="s">
-        <v>657</v>
+    <row r="90" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A90" s="167"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="119" t="s">
+        <v>650</v>
       </c>
       <c r="D90" s="107">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E90" s="72"/>
       <c r="F90" s="72" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="G90" s="71" t="s">
         <v>256</v>
@@ -15612,20 +15593,25 @@
       <c r="Q90" s="82"/>
       <c r="R90" s="82"/>
       <c r="S90" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="T90" s="72"/>
+        <v>274</v>
+      </c>
+      <c r="T90" s="72" t="s">
+        <v>677</v>
+      </c>
       <c r="U90" s="72" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="V90" s="72" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="W90" s="73" t="s">
         <v>260</v>
       </c>
       <c r="X90" s="70"/>
       <c r="Y90" s="74"/>
+      <c r="Z90" s="76"/>
+      <c r="AA90" s="76"/>
+      <c r="AB90" s="76"/>
       <c r="AC90" s="74"/>
       <c r="AD90" s="74"/>
       <c r="AE90" s="74"/>
@@ -15645,77 +15631,90 @@
       <c r="AS90" s="74"/>
       <c r="AT90" s="74"/>
     </row>
-    <row r="91" spans="1:46" s="89" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="160"/>
-      <c r="B91" s="96" t="s">
-        <v>658</v>
-      </c>
-      <c r="C91" s="96" t="s">
-        <v>689</v>
+    <row r="91" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A91" s="167"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="119" t="s">
+        <v>651</v>
       </c>
       <c r="D91" s="107">
-        <v>89</v>
-      </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="92" t="s">
-        <v>760</v>
+        <v>86</v>
+      </c>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72" t="s">
+        <v>439</v>
       </c>
       <c r="G91" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="90"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
       <c r="L91" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M91" s="90"/>
-      <c r="N91" s="90"/>
-      <c r="O91" s="90"/>
-      <c r="P91" s="90"/>
-      <c r="Q91" s="90"/>
-      <c r="R91" s="90"/>
-      <c r="S91" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="T91" s="94" t="s">
-        <v>759</v>
-      </c>
-      <c r="U91" s="94" t="s">
-        <v>761</v>
-      </c>
-      <c r="V91" s="94"/>
-      <c r="W91" s="98" t="s">
-        <v>741</v>
-      </c>
-      <c r="X91" s="92"/>
-    </row>
-    <row r="92" spans="1:46" s="18" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="151" t="s">
-        <v>444</v>
-      </c>
-      <c r="B92" s="149" t="s">
-        <v>445</v>
-      </c>
-      <c r="C92" s="97" t="s">
-        <v>659</v>
+      <c r="M91" s="82"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="82"/>
+      <c r="P91" s="82"/>
+      <c r="Q91" s="82"/>
+      <c r="R91" s="82"/>
+      <c r="S91" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="T91" s="72" t="s">
+        <v>679</v>
+      </c>
+      <c r="U91" s="72" t="s">
+        <v>674</v>
+      </c>
+      <c r="V91" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="W91" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="X91" s="70"/>
+      <c r="Y91" s="74"/>
+      <c r="AC91" s="74"/>
+      <c r="AD91" s="74"/>
+      <c r="AE91" s="74"/>
+      <c r="AF91" s="74"/>
+      <c r="AG91" s="74"/>
+      <c r="AH91" s="74"/>
+      <c r="AI91" s="74"/>
+      <c r="AJ91" s="74"/>
+      <c r="AK91" s="74"/>
+      <c r="AL91" s="74"/>
+      <c r="AM91" s="74"/>
+      <c r="AN91" s="74"/>
+      <c r="AO91" s="74"/>
+      <c r="AP91" s="74"/>
+      <c r="AQ91" s="74"/>
+      <c r="AR91" s="74"/>
+      <c r="AS91" s="74"/>
+      <c r="AT91" s="74"/>
+    </row>
+    <row r="92" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1">
+      <c r="A92" s="167"/>
+      <c r="B92" s="162"/>
+      <c r="C92" s="119" t="s">
+        <v>652</v>
       </c>
       <c r="D92" s="107">
-        <v>90</v>
-      </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="30" t="s">
-        <v>446</v>
+        <v>87</v>
+      </c>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72" t="s">
+        <v>408</v>
       </c>
       <c r="G92" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H92" s="82"/>
       <c r="I92" s="82"/>
-      <c r="J92" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="J92" s="82"/>
       <c r="K92" s="82"/>
       <c r="L92" s="71" t="s">
         <v>256</v>
@@ -15726,46 +15725,59 @@
       <c r="P92" s="82"/>
       <c r="Q92" s="82"/>
       <c r="R92" s="82"/>
-      <c r="S92" s="32" t="s">
+      <c r="S92" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="T92" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="U92" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="V92" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="W92" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="X92" s="30" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="93" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="151"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="97" t="s">
-        <v>660</v>
+      <c r="T92" s="72"/>
+      <c r="U92" s="72" t="s">
+        <v>674</v>
+      </c>
+      <c r="V92" s="72" t="s">
+        <v>681</v>
+      </c>
+      <c r="W92" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="X92" s="70"/>
+      <c r="Y92" s="74"/>
+      <c r="AC92" s="74"/>
+      <c r="AD92" s="74"/>
+      <c r="AE92" s="74"/>
+      <c r="AF92" s="74"/>
+      <c r="AG92" s="74"/>
+      <c r="AH92" s="74"/>
+      <c r="AI92" s="74"/>
+      <c r="AJ92" s="74"/>
+      <c r="AK92" s="74"/>
+      <c r="AL92" s="74"/>
+      <c r="AM92" s="74"/>
+      <c r="AN92" s="74"/>
+      <c r="AO92" s="74"/>
+      <c r="AP92" s="74"/>
+      <c r="AQ92" s="74"/>
+      <c r="AR92" s="74"/>
+      <c r="AS92" s="74"/>
+      <c r="AT92" s="74"/>
+    </row>
+    <row r="93" spans="1:46" s="18" customFormat="1" ht="25" customHeight="1">
+      <c r="A93" s="167"/>
+      <c r="B93" s="163"/>
+      <c r="C93" s="119" t="s">
+        <v>653</v>
       </c>
       <c r="D93" s="107">
-        <v>91</v>
-      </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30" t="s">
-        <v>446</v>
+        <v>88</v>
+      </c>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72" t="s">
+        <v>376</v>
       </c>
       <c r="G93" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H93" s="82"/>
       <c r="I93" s="82"/>
-      <c r="J93" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="J93" s="82"/>
       <c r="K93" s="82"/>
       <c r="L93" s="71" t="s">
         <v>256</v>
@@ -15776,90 +15788,111 @@
       <c r="P93" s="82"/>
       <c r="Q93" s="82"/>
       <c r="R93" s="82"/>
-      <c r="S93" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="T93" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="U93" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="V93" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="W93" s="34"/>
-      <c r="X93" s="30"/>
-      <c r="Z93" s="76"/>
-      <c r="AA93" s="76"/>
-      <c r="AB93" s="76"/>
-    </row>
-    <row r="94" spans="1:46" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="151"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="97" t="s">
-        <v>661</v>
+      <c r="S93" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="T93" s="72"/>
+      <c r="U93" s="72" t="s">
+        <v>674</v>
+      </c>
+      <c r="V93" s="72" t="s">
+        <v>682</v>
+      </c>
+      <c r="W93" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="X93" s="70"/>
+      <c r="Y93" s="74"/>
+      <c r="AC93" s="74"/>
+      <c r="AD93" s="74"/>
+      <c r="AE93" s="74"/>
+      <c r="AF93" s="74"/>
+      <c r="AG93" s="74"/>
+      <c r="AH93" s="74"/>
+      <c r="AI93" s="74"/>
+      <c r="AJ93" s="74"/>
+      <c r="AK93" s="74"/>
+      <c r="AL93" s="74"/>
+      <c r="AM93" s="74"/>
+      <c r="AN93" s="74"/>
+      <c r="AO93" s="74"/>
+      <c r="AP93" s="74"/>
+      <c r="AQ93" s="74"/>
+      <c r="AR93" s="74"/>
+      <c r="AS93" s="74"/>
+      <c r="AT93" s="74"/>
+    </row>
+    <row r="94" spans="1:46" s="89" customFormat="1" ht="42" customHeight="1">
+      <c r="A94" s="168"/>
+      <c r="B94" s="124" t="s">
+        <v>882</v>
+      </c>
+      <c r="C94" s="96" t="s">
+        <v>683</v>
       </c>
       <c r="D94" s="107">
-        <v>92</v>
-      </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30" t="s">
-        <v>450</v>
+        <v>89</v>
+      </c>
+      <c r="E94" s="96"/>
+      <c r="F94" s="92" t="s">
+        <v>754</v>
       </c>
       <c r="G94" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="90"/>
       <c r="L94" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="82"/>
+      <c r="M94" s="90"/>
+      <c r="N94" s="90"/>
+      <c r="O94" s="90"/>
+      <c r="P94" s="90"/>
+      <c r="Q94" s="90"/>
+      <c r="R94" s="90"/>
       <c r="S94" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="T94" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="U94" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="V94" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="W94" s="34"/>
-      <c r="X94" s="30"/>
-      <c r="Z94" s="76"/>
-      <c r="AA94" s="76"/>
-      <c r="AB94" s="76"/>
-    </row>
-    <row r="95" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="151"/>
-      <c r="B95" s="149"/>
+      <c r="T94" s="94" t="s">
+        <v>753</v>
+      </c>
+      <c r="U94" s="94" t="s">
+        <v>755</v>
+      </c>
+      <c r="V94" s="94"/>
+      <c r="W94" s="98" t="s">
+        <v>735</v>
+      </c>
+      <c r="X94" s="92"/>
+    </row>
+    <row r="95" spans="1:46" s="18" customFormat="1" ht="31" customHeight="1">
+      <c r="A95" s="167" t="s">
+        <v>440</v>
+      </c>
+      <c r="B95" s="152" t="s">
+        <v>441</v>
+      </c>
       <c r="C95" s="97" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="D95" s="107">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E95" s="29"/>
       <c r="F95" s="30" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="G95" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H95" s="82"/>
       <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
+      <c r="J95" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="K95" s="82"/>
       <c r="L95" s="71" t="s">
         <v>256</v>
@@ -15877,37 +15910,39 @@
         <v>297</v>
       </c>
       <c r="U95" s="33" t="s">
-        <v>696</v>
+        <v>298</v>
       </c>
       <c r="V95" s="33" t="s">
-        <v>697</v>
+        <v>443</v>
       </c>
       <c r="W95" s="34" t="s">
         <v>300</v>
       </c>
       <c r="X95" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:46" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="151"/>
-      <c r="B96" s="149"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="167"/>
+      <c r="B96" s="153"/>
       <c r="C96" s="97" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D96" s="107">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E96" s="29"/>
       <c r="F96" s="30" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="G96" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H96" s="82"/>
       <c r="I96" s="82"/>
-      <c r="J96" s="82"/>
+      <c r="J96" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="K96" s="82"/>
       <c r="L96" s="71" t="s">
         <v>256</v>
@@ -15919,38 +15954,35 @@
       <c r="Q96" s="82"/>
       <c r="R96" s="82"/>
       <c r="S96" s="32" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="T96" s="33" t="s">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="U96" s="33" t="s">
-        <v>452</v>
+        <v>298</v>
       </c>
       <c r="V96" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="W96" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="X96" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="151"/>
-      <c r="B97" s="149"/>
-      <c r="C97" s="151" t="s">
-        <v>664</v>
+        <v>687</v>
+      </c>
+      <c r="W96" s="34"/>
+      <c r="X96" s="30"/>
+      <c r="Z96" s="76"/>
+      <c r="AA96" s="76"/>
+      <c r="AB96" s="76"/>
+    </row>
+    <row r="97" spans="1:28" s="18" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A97" s="167"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="97" t="s">
+        <v>656</v>
       </c>
       <c r="D97" s="107">
-        <v>95</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>665</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E97" s="29"/>
       <c r="F97" s="30" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="G97" s="71" t="s">
         <v>256</v>
@@ -15972,29 +16004,30 @@
         <v>257</v>
       </c>
       <c r="T97" s="33" t="s">
-        <v>699</v>
+        <v>447</v>
       </c>
       <c r="U97" s="33" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="V97" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="W97" s="34" t="s">
-        <v>300</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="W97" s="34"/>
       <c r="X97" s="30"/>
-    </row>
-    <row r="98" spans="1:28" s="18" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="151"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="151"/>
+      <c r="Z97" s="76"/>
+      <c r="AA97" s="76"/>
+      <c r="AB97" s="76"/>
+    </row>
+    <row r="98" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A98" s="167"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="97" t="s">
+        <v>657</v>
+      </c>
       <c r="D98" s="107">
-        <v>96</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>666</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E98" s="29"/>
       <c r="F98" s="30" t="s">
         <v>376</v>
       </c>
@@ -16021,26 +16054,26 @@
         <v>297</v>
       </c>
       <c r="U98" s="33" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="V98" s="33" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="W98" s="34" t="s">
         <v>300</v>
       </c>
       <c r="X98" s="30" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="151"/>
-      <c r="B99" s="149"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A99" s="167"/>
+      <c r="B99" s="153"/>
       <c r="C99" s="97" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D99" s="107">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="30" t="s">
@@ -16069,31 +16102,30 @@
         <v>297</v>
       </c>
       <c r="U99" s="33" t="s">
-        <v>704</v>
+        <v>448</v>
       </c>
       <c r="V99" s="33" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="W99" s="34" t="s">
         <v>300</v>
       </c>
       <c r="X99" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z99" s="76"/>
-      <c r="AA99" s="76"/>
-      <c r="AB99" s="76"/>
-    </row>
-    <row r="100" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="151"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="97" t="s">
-        <v>668</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A100" s="167"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="167" t="s">
+        <v>659</v>
       </c>
       <c r="D100" s="107">
-        <v>98</v>
-      </c>
-      <c r="E100" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>660</v>
+      </c>
       <c r="F100" s="30" t="s">
         <v>376</v>
       </c>
@@ -16114,55 +16146,46 @@
       <c r="Q100" s="82"/>
       <c r="R100" s="82"/>
       <c r="S100" s="32" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="T100" s="33" t="s">
-        <v>297</v>
+        <v>693</v>
       </c>
       <c r="U100" s="33" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="V100" s="33" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="W100" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="X100" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z100" s="76"/>
-      <c r="AA100" s="76"/>
-      <c r="AB100" s="76"/>
-    </row>
-    <row r="101" spans="1:28" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="151"/>
-      <c r="B101" s="167" t="s">
-        <v>692</v>
-      </c>
-      <c r="C101" s="120" t="s">
-        <v>881</v>
-      </c>
+      <c r="X100" s="30"/>
+    </row>
+    <row r="101" spans="1:28" s="18" customFormat="1" ht="64" customHeight="1">
+      <c r="A101" s="167"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="167"/>
       <c r="D101" s="107">
-        <v>99</v>
-      </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29" t="s">
-        <v>409</v>
+        <v>96</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>376</v>
       </c>
       <c r="G101" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H101" s="82"/>
       <c r="I101" s="82"/>
-      <c r="J101" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="J101" s="82"/>
       <c r="K101" s="82"/>
       <c r="L101" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M101" s="71"/>
+      <c r="M101" s="82"/>
       <c r="N101" s="82"/>
       <c r="O101" s="82"/>
       <c r="P101" s="82"/>
@@ -16175,40 +16198,37 @@
         <v>297</v>
       </c>
       <c r="U101" s="33" t="s">
-        <v>298</v>
+        <v>695</v>
       </c>
       <c r="V101" s="33" t="s">
-        <v>456</v>
+        <v>696</v>
       </c>
       <c r="W101" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="X101" s="30"/>
-      <c r="Z101" s="76"/>
-      <c r="AA101" s="76"/>
-      <c r="AB101" s="76"/>
-    </row>
-    <row r="102" spans="1:28" s="18" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="151"/>
-      <c r="B102" s="167"/>
-      <c r="C102" s="29" t="s">
-        <v>457</v>
+      <c r="X101" s="30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A102" s="167"/>
+      <c r="B102" s="153"/>
+      <c r="C102" s="97" t="s">
+        <v>662</v>
       </c>
       <c r="D102" s="107">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="30" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="G102" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H102" s="82"/>
       <c r="I102" s="82"/>
-      <c r="J102" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="J102" s="82"/>
       <c r="K102" s="82"/>
       <c r="L102" s="71" t="s">
         <v>256</v>
@@ -16220,37 +16240,39 @@
       <c r="Q102" s="82"/>
       <c r="R102" s="82"/>
       <c r="S102" s="32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="T102" s="33" t="s">
-        <v>459</v>
+        <v>297</v>
       </c>
       <c r="U102" s="33" t="s">
-        <v>460</v>
+        <v>698</v>
       </c>
       <c r="V102" s="33" t="s">
-        <v>461</v>
+        <v>697</v>
       </c>
       <c r="W102" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="X102" s="30"/>
+      <c r="X102" s="30" t="s">
+        <v>449</v>
+      </c>
       <c r="Z102" s="76"/>
       <c r="AA102" s="76"/>
       <c r="AB102" s="76"/>
     </row>
-    <row r="103" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="151"/>
-      <c r="B103" s="167"/>
-      <c r="C103" s="83" t="s">
-        <v>762</v>
+    <row r="103" spans="1:28" s="18" customFormat="1" ht="32.15" customHeight="1">
+      <c r="A103" s="167"/>
+      <c r="B103" s="154"/>
+      <c r="C103" s="97" t="s">
+        <v>663</v>
       </c>
       <c r="D103" s="107">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="30" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="G103" s="71" t="s">
         <v>256</v>
@@ -16262,53 +16284,62 @@
       <c r="L103" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M103" s="71"/>
+      <c r="M103" s="82"/>
       <c r="N103" s="82"/>
       <c r="O103" s="82"/>
       <c r="P103" s="82"/>
       <c r="Q103" s="82"/>
       <c r="R103" s="82"/>
       <c r="S103" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="T103" s="81" t="s">
-        <v>763</v>
-      </c>
-      <c r="U103" s="81" t="s">
-        <v>764</v>
-      </c>
-      <c r="V103" s="81" t="s">
-        <v>765</v>
-      </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="30"/>
-    </row>
-    <row r="104" spans="1:28" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="151"/>
-      <c r="B104" s="149" t="s">
-        <v>670</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>669</v>
+        <v>296</v>
+      </c>
+      <c r="T103" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U103" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="V103" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="W103" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X103" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z103" s="76"/>
+      <c r="AA103" s="76"/>
+      <c r="AB103" s="76"/>
+    </row>
+    <row r="104" spans="1:28" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A104" s="167"/>
+      <c r="B104" s="174" t="s">
+        <v>686</v>
+      </c>
+      <c r="C104" s="119" t="s">
+        <v>883</v>
       </c>
       <c r="D104" s="107">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E104" s="29"/>
-      <c r="F104" s="30" t="s">
-        <v>463</v>
+      <c r="F104" s="29" t="s">
+        <v>408</v>
       </c>
       <c r="G104" s="71" t="s">
         <v>256</v>
       </c>
       <c r="H104" s="82"/>
       <c r="I104" s="82"/>
-      <c r="J104" s="82"/>
+      <c r="J104" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="K104" s="82"/>
       <c r="L104" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M104" s="82"/>
+      <c r="M104" s="71"/>
       <c r="N104" s="82"/>
       <c r="O104" s="82"/>
       <c r="P104" s="82"/>
@@ -16320,38 +16351,41 @@
       <c r="T104" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="U104" s="81" t="s">
-        <v>766</v>
-      </c>
-      <c r="V104" s="81"/>
+      <c r="U104" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="V104" s="33" t="s">
+        <v>452</v>
+      </c>
       <c r="W104" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="X104" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" s="18" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="151"/>
-      <c r="B105" s="149"/>
+        <v>300</v>
+      </c>
+      <c r="X104" s="30"/>
+      <c r="Z104" s="76"/>
+      <c r="AA104" s="76"/>
+      <c r="AB104" s="76"/>
+    </row>
+    <row r="105" spans="1:28" s="18" customFormat="1" ht="44.15" customHeight="1">
+      <c r="A105" s="167"/>
+      <c r="B105" s="175"/>
       <c r="C105" s="29" t="s">
-        <v>671</v>
+        <v>453</v>
       </c>
       <c r="D105" s="107">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="30" t="s">
-        <v>376</v>
+        <v>454</v>
       </c>
       <c r="G105" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H105" s="71" t="s">
-        <v>256</v>
-      </c>
+      <c r="H105" s="82"/>
       <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
+      <c r="J105" s="71" t="s">
+        <v>256</v>
+      </c>
       <c r="K105" s="82"/>
       <c r="L105" s="71" t="s">
         <v>256</v>
@@ -16363,36 +16397,37 @@
       <c r="Q105" s="82"/>
       <c r="R105" s="82"/>
       <c r="S105" s="32" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="T105" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="U105" s="81" t="s">
-        <v>768</v>
-      </c>
-      <c r="V105" s="81"/>
-      <c r="W105" s="85" t="s">
-        <v>767</v>
+        <v>455</v>
+      </c>
+      <c r="U105" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="V105" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="W105" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="X105" s="30"/>
-    </row>
-    <row r="106" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="166" t="s">
-        <v>691</v>
-      </c>
-      <c r="B106" s="163" t="s">
-        <v>469</v>
-      </c>
-      <c r="C106" s="97" t="s">
-        <v>672</v>
+      <c r="Z105" s="76"/>
+      <c r="AA105" s="76"/>
+      <c r="AB105" s="76"/>
+    </row>
+    <row r="106" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A106" s="167"/>
+      <c r="B106" s="176"/>
+      <c r="C106" s="83" t="s">
+        <v>756</v>
       </c>
       <c r="D106" s="107">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E106" s="29"/>
-      <c r="F106" s="99" t="s">
-        <v>409</v>
+      <c r="F106" s="30" t="s">
+        <v>454</v>
       </c>
       <c r="G106" s="71" t="s">
         <v>256</v>
@@ -16404,46 +16439,44 @@
       <c r="L106" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M106" s="82"/>
+      <c r="M106" s="71"/>
       <c r="N106" s="82"/>
       <c r="O106" s="82"/>
       <c r="P106" s="82"/>
       <c r="Q106" s="82"/>
       <c r="R106" s="82"/>
       <c r="S106" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="T106" s="33" t="s">
-        <v>470</v>
+        <v>268</v>
+      </c>
+      <c r="T106" s="81" t="s">
+        <v>757</v>
       </c>
       <c r="U106" s="81" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="V106" s="81" t="s">
-        <v>770</v>
-      </c>
-      <c r="W106" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="X106" s="30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" s="18" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="166"/>
-      <c r="B107" s="163"/>
-      <c r="C107" s="96" t="s">
-        <v>690</v>
+        <v>759</v>
+      </c>
+      <c r="W106" s="34"/>
+      <c r="X106" s="30"/>
+    </row>
+    <row r="107" spans="1:28" s="18" customFormat="1" ht="42" customHeight="1">
+      <c r="A107" s="167"/>
+      <c r="B107" s="152" t="s">
+        <v>665</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>664</v>
       </c>
       <c r="D107" s="107">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E107" s="29"/>
-      <c r="F107" s="84" t="s">
-        <v>746</v>
-      </c>
-      <c r="G107" s="90" t="s">
-        <v>771</v>
+      <c r="F107" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G107" s="71" t="s">
+        <v>256</v>
       </c>
       <c r="H107" s="82"/>
       <c r="I107" s="82"/>
@@ -16452,36 +16485,180 @@
       <c r="L107" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="M107" s="90"/>
+      <c r="M107" s="82"/>
       <c r="N107" s="82"/>
       <c r="O107" s="82"/>
       <c r="P107" s="82"/>
       <c r="Q107" s="82"/>
       <c r="R107" s="82"/>
-      <c r="S107" s="80" t="s">
-        <v>738</v>
-      </c>
-      <c r="T107" s="81" t="s">
-        <v>774</v>
+      <c r="S107" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="T107" s="33" t="s">
+        <v>297</v>
       </c>
       <c r="U107" s="81" t="s">
-        <v>772</v>
-      </c>
-      <c r="V107" s="33"/>
-      <c r="W107" s="85" t="s">
-        <v>773</v>
-      </c>
-      <c r="X107" s="30"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B108" s="31"/>
+        <v>760</v>
+      </c>
+      <c r="V107" s="81"/>
+      <c r="W107" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="X107" s="30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="18" customFormat="1" ht="70" customHeight="1">
+      <c r="A108" s="167"/>
+      <c r="B108" s="154"/>
+      <c r="C108" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="D108" s="107">
+        <v>103</v>
+      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="G108" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H108" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="I108" s="82"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="82"/>
+      <c r="L108" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="M108" s="82"/>
+      <c r="N108" s="82"/>
+      <c r="O108" s="82"/>
+      <c r="P108" s="82"/>
+      <c r="Q108" s="82"/>
+      <c r="R108" s="82"/>
+      <c r="S108" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="T108" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="U108" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="V108" s="81"/>
+      <c r="W108" s="85" t="s">
+        <v>761</v>
+      </c>
+      <c r="X108" s="30"/>
+    </row>
+    <row r="109" spans="1:28" s="18" customFormat="1" ht="16" customHeight="1">
+      <c r="A109" s="173" t="s">
+        <v>685</v>
+      </c>
+      <c r="B109" s="158" t="s">
+        <v>465</v>
+      </c>
+      <c r="C109" s="97" t="s">
+        <v>667</v>
+      </c>
+      <c r="D109" s="107">
+        <v>104</v>
+      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="G109" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="82"/>
+      <c r="L109" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="M109" s="82"/>
+      <c r="N109" s="82"/>
+      <c r="O109" s="82"/>
+      <c r="P109" s="82"/>
+      <c r="Q109" s="82"/>
+      <c r="R109" s="82"/>
+      <c r="S109" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="T109" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="U109" s="81" t="s">
+        <v>763</v>
+      </c>
+      <c r="V109" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="W109" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="X109" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" s="18" customFormat="1" ht="58" customHeight="1">
+      <c r="A110" s="173"/>
+      <c r="B110" s="160"/>
+      <c r="C110" s="96" t="s">
+        <v>684</v>
+      </c>
+      <c r="D110" s="107">
+        <v>105</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="84" t="s">
+        <v>740</v>
+      </c>
+      <c r="G110" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+      <c r="L110" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="M110" s="90"/>
+      <c r="N110" s="82"/>
+      <c r="O110" s="82"/>
+      <c r="P110" s="82"/>
+      <c r="Q110" s="82"/>
+      <c r="R110" s="82"/>
+      <c r="S110" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="T110" s="81" t="s">
+        <v>768</v>
+      </c>
+      <c r="U110" s="81" t="s">
+        <v>766</v>
+      </c>
+      <c r="V110" s="33"/>
+      <c r="W110" s="85" t="s">
+        <v>767</v>
+      </c>
+      <c r="X110" s="30"/>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="B111" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AV107"/>
-  <mergeCells count="45">
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B101:B103"/>
+  <autoFilter ref="A2:AV110"/>
+  <mergeCells count="48">
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B104:B106"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="C8:C12"/>
@@ -16489,12 +16666,14 @@
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A92:A105"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A95:A108"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="A25:A94"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
@@ -16506,28 +16685,29 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:A91"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B49:B66"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="B76:B78"/>
     <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C64:C66"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M30 H29:J30 H1:K28 M1:R28 L1:L49 G1:G49 H31:K49 M31:R49 WVO50:WVZ50 JC50:JN50 SY50:TJ50 ACU50:ADF50 AMQ50:ANB50 AWM50:AWX50 BGI50:BGT50 BQE50:BQP50 CAA50:CAL50 CJW50:CKH50 CTS50:CUD50 DDO50:DDZ50 DNK50:DNV50 DXG50:DXR50 EHC50:EHN50 EQY50:ERJ50 FAU50:FBF50 FKQ50:FLB50 FUM50:FUX50 GEI50:GET50 GOE50:GOP50 GYA50:GYL50 HHW50:HIH50 HRS50:HSD50 IBO50:IBZ50 ILK50:ILV50 IVG50:IVR50 JFC50:JFN50 JOY50:JPJ50 JYU50:JZF50 KIQ50:KJB50 KSM50:KSX50 LCI50:LCT50 LME50:LMP50 LWA50:LWL50 MFW50:MGH50 MPS50:MQD50 MZO50:MZZ50 NJK50:NJV50 NTG50:NTR50 ODC50:ODN50 OMY50:ONJ50 OWU50:OXF50 PGQ50:PHB50 PQM50:PQX50 QAI50:QAT50 QKE50:QKP50 QUA50:QUL50 RDW50:REH50 RNS50:ROD50 RXO50:RXZ50 SHK50:SHV50 SRG50:SRR50 TBC50:TBN50 TKY50:TLJ50 TUU50:TVF50 UEQ50:UFB50 UOM50:UOX50 UYI50:UYT50 VIE50:VIP50 VSA50:VSL50 WBW50:WCH50 WLS50:WMD50 WVO53:WVZ53 JC53:JN53 SY53:TJ53 ACU53:ADF53 AMQ53:ANB53 AWM53:AWX53 BGI53:BGT53 BQE53:BQP53 CAA53:CAL53 CJW53:CKH53 CTS53:CUD53 DDO53:DDZ53 DNK53:DNV53 DXG53:DXR53 EHC53:EHN53 EQY53:ERJ53 FAU53:FBF53 FKQ53:FLB53 FUM53:FUX53 GEI53:GET53 GOE53:GOP53 GYA53:GYL53 HHW53:HIH53 HRS53:HSD53 IBO53:IBZ53 ILK53:ILV53 IVG53:IVR53 JFC53:JFN53 JOY53:JPJ53 JYU53:JZF53 KIQ53:KJB53 KSM53:KSX53 LCI53:LCT53 LME53:LMP53 LWA53:LWL53 MFW53:MGH53 MPS53:MQD53 MZO53:MZZ53 NJK53:NJV53 NTG53:NTR53 ODC53:ODN53 OMY53:ONJ53 OWU53:OXF53 PGQ53:PHB53 PQM53:PQX53 QAI53:QAT53 QKE53:QKP53 QUA53:QUL53 RDW53:REH53 RNS53:ROD53 RXO53:RXZ53 SHK53:SHV53 SRG53:SRR53 TBC53:TBN53 TKY53:TLJ53 TUU53:TVF53 UEQ53:UFB53 UOM53:UOX53 UYI53:UYT53 VIE53:VIP53 VSA53:VSL53 WBW53:WCH53 WLS53:WMD53 WVO56:WVZ56 JC56:JN56 SY56:TJ56 ACU56:ADF56 AMQ56:ANB56 AWM56:AWX56 BGI56:BGT56 BQE56:BQP56 CAA56:CAL56 CJW56:CKH56 CTS56:CUD56 DDO56:DDZ56 DNK56:DNV56 DXG56:DXR56 EHC56:EHN56 EQY56:ERJ56 FAU56:FBF56 FKQ56:FLB56 FUM56:FUX56 GEI56:GET56 GOE56:GOP56 GYA56:GYL56 HHW56:HIH56 HRS56:HSD56 IBO56:IBZ56 ILK56:ILV56 IVG56:IVR56 JFC56:JFN56 JOY56:JPJ56 JYU56:JZF56 KIQ56:KJB56 KSM56:KSX56 LCI56:LCT56 LME56:LMP56 LWA56:LWL56 MFW56:MGH56 MPS56:MQD56 MZO56:MZZ56 NJK56:NJV56 NTG56:NTR56 ODC56:ODN56 OMY56:ONJ56 OWU56:OXF56 PGQ56:PHB56 PQM56:PQX56 QAI56:QAT56 QKE56:QKP56 QUA56:QUL56 RDW56:REH56 RNS56:ROD56 RXO56:RXZ56 SHK56:SHV56 SRG56:SRR56 TBC56:TBN56 TKY56:TLJ56 TUU56:TVF56 UEQ56:UFB56 UOM56:UOX56 UYI56:UYT56 VIE56:VIP56 VSA56:VSL56 WBW56:WCH56 WLS56:WMD56 WVO59:WVZ60 JC59:JN60 SY59:TJ60 ACU59:ADF60 AMQ59:ANB60 AWM59:AWX60 BGI59:BGT60 BQE59:BQP60 CAA59:CAL60 CJW59:CKH60 CTS59:CUD60 DDO59:DDZ60 DNK59:DNV60 DXG59:DXR60 EHC59:EHN60 EQY59:ERJ60 FAU59:FBF60 FKQ59:FLB60 FUM59:FUX60 GEI59:GET60 GOE59:GOP60 GYA59:GYL60 HHW59:HIH60 HRS59:HSD60 IBO59:IBZ60 ILK59:ILV60 IVG59:IVR60 JFC59:JFN60 JOY59:JPJ60 JYU59:JZF60 KIQ59:KJB60 KSM59:KSX60 LCI59:LCT60 LME59:LMP60 LWA59:LWL60 MFW59:MGH60 MPS59:MQD60 MZO59:MZZ60 NJK59:NJV60 NTG59:NTR60 ODC59:ODN60 OMY59:ONJ60 OWU59:OXF60 PGQ59:PHB60 PQM59:PQX60 QAI59:QAT60 QKE59:QKP60 QUA59:QUL60 RDW59:REH60 RNS59:ROD60 RXO59:RXZ60 SHK59:SHV60 SRG59:SRR60 TBC59:TBN60 TKY59:TLJ60 TUU59:TVF60 UEQ59:UFB60 UOM59:UOX60 UYI59:UYT60 VIE59:VIP60 VSA59:VSL60 WBW59:WCH60 WLS59:WMD60 WVO62:WVZ62 JC62:JN62 SY62:TJ62 ACU62:ADF62 AMQ62:ANB62 AWM62:AWX62 BGI62:BGT62 BQE62:BQP62 CAA62:CAL62 CJW62:CKH62 CTS62:CUD62 DDO62:DDZ62 DNK62:DNV62 DXG62:DXR62 EHC62:EHN62 EQY62:ERJ62 FAU62:FBF62 FKQ62:FLB62 FUM62:FUX62 GEI62:GET62 GOE62:GOP62 GYA62:GYL62 HHW62:HIH62 HRS62:HSD62 IBO62:IBZ62 ILK62:ILV62 IVG62:IVR62 JFC62:JFN62 JOY62:JPJ62 JYU62:JZF62 KIQ62:KJB62 KSM62:KSX62 LCI62:LCT62 LME62:LMP62 LWA62:LWL62 MFW62:MGH62 MPS62:MQD62 MZO62:MZZ62 NJK62:NJV62 NTG62:NTR62 ODC62:ODN62 OMY62:ONJ62 OWU62:OXF62 PGQ62:PHB62 PQM62:PQX62 QAI62:QAT62 QKE62:QKP62 QUA62:QUL62 RDW62:REH62 RNS62:ROD62 RXO62:RXZ62 SHK62:SHV62 SRG62:SRR62 TBC62:TBN62 TKY62:TLJ62 TUU62:TVF62 UEQ62:UFB62 UOM62:UOX62 UYI62:UYT62 VIE62:VIP62 VSA62:VSL62 WBW62:WCH62 WLS62:WMD62 WVO65:WVZ65 JC65:JN65 SY65:TJ65 ACU65:ADF65 AMQ65:ANB65 AWM65:AWX65 BGI65:BGT65 BQE65:BQP65 CAA65:CAL65 CJW65:CKH65 CTS65:CUD65 DDO65:DDZ65 DNK65:DNV65 DXG65:DXR65 EHC65:EHN65 EQY65:ERJ65 FAU65:FBF65 FKQ65:FLB65 FUM65:FUX65 GEI65:GET65 GOE65:GOP65 GYA65:GYL65 HHW65:HIH65 HRS65:HSD65 IBO65:IBZ65 ILK65:ILV65 IVG65:IVR65 JFC65:JFN65 JOY65:JPJ65 JYU65:JZF65 KIQ65:KJB65 KSM65:KSX65 LCI65:LCT65 LME65:LMP65 LWA65:LWL65 MFW65:MGH65 MPS65:MQD65 MZO65:MZZ65 NJK65:NJV65 NTG65:NTR65 ODC65:ODN65 OMY65:ONJ65 OWU65:OXF65 PGQ65:PHB65 PQM65:PQX65 QAI65:QAT65 QKE65:QKP65 QUA65:QUL65 RDW65:REH65 RNS65:ROD65 RXO65:RXZ65 SHK65:SHV65 SRG65:SRR65 TBC65:TBN65 TKY65:TLJ65 TUU65:TVF65 UEQ65:UFB65 UOM65:UOX65 UYI65:UYT65 VIE65:VIP65 VSA65:VSL65 WBW65:WCH65 WLS65:WMD65 WVO68:WVZ69 JC68:JN69 SY68:TJ69 ACU68:ADF69 AMQ68:ANB69 AWM68:AWX69 BGI68:BGT69 BQE68:BQP69 CAA68:CAL69 CJW68:CKH69 CTS68:CUD69 DDO68:DDZ69 DNK68:DNV69 DXG68:DXR69 EHC68:EHN69 EQY68:ERJ69 FAU68:FBF69 FKQ68:FLB69 FUM68:FUX69 GEI68:GET69 GOE68:GOP69 GYA68:GYL69 HHW68:HIH69 HRS68:HSD69 IBO68:IBZ69 ILK68:ILV69 IVG68:IVR69 JFC68:JFN69 JOY68:JPJ69 JYU68:JZF69 KIQ68:KJB69 KSM68:KSX69 LCI68:LCT69 LME68:LMP69 LWA68:LWL69 MFW68:MGH69 MPS68:MQD69 MZO68:MZZ69 NJK68:NJV69 NTG68:NTR69 ODC68:ODN69 OMY68:ONJ69 OWU68:OXF69 PGQ68:PHB69 PQM68:PQX69 QAI68:QAT69 QKE68:QKP69 QUA68:QUL69 RDW68:REH69 RNS68:ROD69 RXO68:RXZ69 SHK68:SHV69 SRG68:SRR69 TBC68:TBN69 TKY68:TLJ69 TUU68:TVF69 UEQ68:UFB69 UOM68:UOX69 UYI68:UYT69 VIE68:VIP69 VSA68:VSL69 WBW68:WCH69 WLS68:WMD69 WVO71:WVZ71 JC71:JN71 SY71:TJ71 ACU71:ADF71 AMQ71:ANB71 AWM71:AWX71 BGI71:BGT71 BQE71:BQP71 CAA71:CAL71 CJW71:CKH71 CTS71:CUD71 DDO71:DDZ71 DNK71:DNV71 DXG71:DXR71 EHC71:EHN71 EQY71:ERJ71 FAU71:FBF71 FKQ71:FLB71 FUM71:FUX71 GEI71:GET71 GOE71:GOP71 GYA71:GYL71 HHW71:HIH71 HRS71:HSD71 IBO71:IBZ71 ILK71:ILV71 IVG71:IVR71 JFC71:JFN71 JOY71:JPJ71 JYU71:JZF71 KIQ71:KJB71 KSM71:KSX71 LCI71:LCT71 LME71:LMP71 LWA71:LWL71 MFW71:MGH71 MPS71:MQD71 MZO71:MZZ71 NJK71:NJV71 NTG71:NTR71 ODC71:ODN71 OMY71:ONJ71 OWU71:OXF71 PGQ71:PHB71 PQM71:PQX71 QAI71:QAT71 QKE71:QKP71 QUA71:QUL71 RDW71:REH71 RNS71:ROD71 RXO71:RXZ71 SHK71:SHV71 SRG71:SRR71 TBC71:TBN71 TKY71:TLJ71 TUU71:TVF71 UEQ71:UFB71 UOM71:UOX71 UYI71:UYT71 VIE71:VIP71 VSA71:VSL71 WBW71:WCH71 WLS71:WMD71 G50:R1048576 JC74:JN75 SY74:TJ75 ACU74:ADF75 AMQ74:ANB75 AWM74:AWX75 BGI74:BGT75 BQE74:BQP75 CAA74:CAL75 CJW74:CKH75 CTS74:CUD75 DDO74:DDZ75 DNK74:DNV75 DXG74:DXR75 EHC74:EHN75 EQY74:ERJ75 FAU74:FBF75 FKQ74:FLB75 FUM74:FUX75 GEI74:GET75 GOE74:GOP75 GYA74:GYL75 HHW74:HIH75 HRS74:HSD75 IBO74:IBZ75 ILK74:ILV75 IVG74:IVR75 JFC74:JFN75 JOY74:JPJ75 JYU74:JZF75 KIQ74:KJB75 KSM74:KSX75 LCI74:LCT75 LME74:LMP75 LWA74:LWL75 MFW74:MGH75 MPS74:MQD75 MZO74:MZZ75 NJK74:NJV75 NTG74:NTR75 ODC74:ODN75 OMY74:ONJ75 OWU74:OXF75 PGQ74:PHB75 PQM74:PQX75 QAI74:QAT75 QKE74:QKP75 QUA74:QUL75 RDW74:REH75 RNS74:ROD75 RXO74:RXZ75 SHK74:SHV75 SRG74:SRR75 TBC74:TBN75 TKY74:TLJ75 TUU74:TVF75 UEQ74:UFB75 UOM74:UOX75 UYI74:UYT75 VIE74:VIP75 VSA74:VSL75 WBW74:WCH75 WLS74:WMD75 WVO74:WVZ75"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M29:M30 H29:J30 H1:K28 M1:R28 L1:L49 G1:G49 H31:K49 M31:R49 WVO50:WVZ50 JC50:JN50 SY50:TJ50 ACU50:ADF50 AMQ50:ANB50 AWM50:AWX50 BGI50:BGT50 BQE50:BQP50 CAA50:CAL50 CJW50:CKH50 CTS50:CUD50 DDO50:DDZ50 DNK50:DNV50 DXG50:DXR50 EHC50:EHN50 EQY50:ERJ50 FAU50:FBF50 FKQ50:FLB50 FUM50:FUX50 GEI50:GET50 GOE50:GOP50 GYA50:GYL50 HHW50:HIH50 HRS50:HSD50 IBO50:IBZ50 ILK50:ILV50 IVG50:IVR50 JFC50:JFN50 JOY50:JPJ50 JYU50:JZF50 KIQ50:KJB50 KSM50:KSX50 LCI50:LCT50 LME50:LMP50 LWA50:LWL50 MFW50:MGH50 MPS50:MQD50 MZO50:MZZ50 NJK50:NJV50 NTG50:NTR50 ODC50:ODN50 OMY50:ONJ50 OWU50:OXF50 PGQ50:PHB50 PQM50:PQX50 QAI50:QAT50 QKE50:QKP50 QUA50:QUL50 RDW50:REH50 RNS50:ROD50 RXO50:RXZ50 SHK50:SHV50 SRG50:SRR50 TBC50:TBN50 TKY50:TLJ50 TUU50:TVF50 UEQ50:UFB50 UOM50:UOX50 UYI50:UYT50 VIE50:VIP50 VSA50:VSL50 WBW50:WCH50 WLS50:WMD50 WVO53:WVZ53 JC53:JN53 SY53:TJ53 ACU53:ADF53 AMQ53:ANB53 AWM53:AWX53 BGI53:BGT53 BQE53:BQP53 CAA53:CAL53 CJW53:CKH53 CTS53:CUD53 DDO53:DDZ53 DNK53:DNV53 DXG53:DXR53 EHC53:EHN53 EQY53:ERJ53 FAU53:FBF53 FKQ53:FLB53 FUM53:FUX53 GEI53:GET53 GOE53:GOP53 GYA53:GYL53 HHW53:HIH53 HRS53:HSD53 IBO53:IBZ53 ILK53:ILV53 IVG53:IVR53 JFC53:JFN53 JOY53:JPJ53 JYU53:JZF53 KIQ53:KJB53 KSM53:KSX53 LCI53:LCT53 LME53:LMP53 LWA53:LWL53 MFW53:MGH53 MPS53:MQD53 MZO53:MZZ53 NJK53:NJV53 NTG53:NTR53 ODC53:ODN53 OMY53:ONJ53 OWU53:OXF53 PGQ53:PHB53 PQM53:PQX53 QAI53:QAT53 QKE53:QKP53 QUA53:QUL53 RDW53:REH53 RNS53:ROD53 RXO53:RXZ53 SHK53:SHV53 SRG53:SRR53 TBC53:TBN53 TKY53:TLJ53 TUU53:TVF53 UEQ53:UFB53 UOM53:UOX53 UYI53:UYT53 VIE53:VIP53 VSA53:VSL53 WBW53:WCH53 WLS53:WMD53 WVO56:WVZ56 JC56:JN56 SY56:TJ56 ACU56:ADF56 AMQ56:ANB56 AWM56:AWX56 BGI56:BGT56 BQE56:BQP56 CAA56:CAL56 CJW56:CKH56 CTS56:CUD56 DDO56:DDZ56 DNK56:DNV56 DXG56:DXR56 EHC56:EHN56 EQY56:ERJ56 FAU56:FBF56 FKQ56:FLB56 FUM56:FUX56 GEI56:GET56 GOE56:GOP56 GYA56:GYL56 HHW56:HIH56 HRS56:HSD56 IBO56:IBZ56 ILK56:ILV56 IVG56:IVR56 JFC56:JFN56 JOY56:JPJ56 JYU56:JZF56 KIQ56:KJB56 KSM56:KSX56 LCI56:LCT56 LME56:LMP56 LWA56:LWL56 MFW56:MGH56 MPS56:MQD56 MZO56:MZZ56 NJK56:NJV56 NTG56:NTR56 ODC56:ODN56 OMY56:ONJ56 OWU56:OXF56 PGQ56:PHB56 PQM56:PQX56 QAI56:QAT56 QKE56:QKP56 QUA56:QUL56 RDW56:REH56 RNS56:ROD56 RXO56:RXZ56 SHK56:SHV56 SRG56:SRR56 TBC56:TBN56 TKY56:TLJ56 TUU56:TVF56 UEQ56:UFB56 UOM56:UOX56 UYI56:UYT56 VIE56:VIP56 VSA56:VSL56 WBW56:WCH56 WLS56:WMD56 WVO59:WVZ60 JC59:JN60 SY59:TJ60 ACU59:ADF60 AMQ59:ANB60 AWM59:AWX60 BGI59:BGT60 BQE59:BQP60 CAA59:CAL60 CJW59:CKH60 CTS59:CUD60 DDO59:DDZ60 DNK59:DNV60 DXG59:DXR60 EHC59:EHN60 EQY59:ERJ60 FAU59:FBF60 FKQ59:FLB60 FUM59:FUX60 GEI59:GET60 GOE59:GOP60 GYA59:GYL60 HHW59:HIH60 HRS59:HSD60 IBO59:IBZ60 ILK59:ILV60 IVG59:IVR60 JFC59:JFN60 JOY59:JPJ60 JYU59:JZF60 KIQ59:KJB60 KSM59:KSX60 LCI59:LCT60 LME59:LMP60 LWA59:LWL60 MFW59:MGH60 MPS59:MQD60 MZO59:MZZ60 NJK59:NJV60 NTG59:NTR60 ODC59:ODN60 OMY59:ONJ60 OWU59:OXF60 PGQ59:PHB60 PQM59:PQX60 QAI59:QAT60 QKE59:QKP60 QUA59:QUL60 RDW59:REH60 RNS59:ROD60 RXO59:RXZ60 SHK59:SHV60 SRG59:SRR60 TBC59:TBN60 TKY59:TLJ60 TUU59:TVF60 UEQ59:UFB60 UOM59:UOX60 UYI59:UYT60 VIE59:VIP60 VSA59:VSL60 WBW59:WCH60 WLS59:WMD60 WVO62:WVZ62 JC62:JN62 SY62:TJ62 ACU62:ADF62 AMQ62:ANB62 AWM62:AWX62 BGI62:BGT62 BQE62:BQP62 CAA62:CAL62 CJW62:CKH62 CTS62:CUD62 DDO62:DDZ62 DNK62:DNV62 DXG62:DXR62 EHC62:EHN62 EQY62:ERJ62 FAU62:FBF62 FKQ62:FLB62 FUM62:FUX62 GEI62:GET62 GOE62:GOP62 GYA62:GYL62 HHW62:HIH62 HRS62:HSD62 IBO62:IBZ62 ILK62:ILV62 IVG62:IVR62 JFC62:JFN62 JOY62:JPJ62 JYU62:JZF62 KIQ62:KJB62 KSM62:KSX62 LCI62:LCT62 LME62:LMP62 LWA62:LWL62 MFW62:MGH62 MPS62:MQD62 MZO62:MZZ62 NJK62:NJV62 NTG62:NTR62 ODC62:ODN62 OMY62:ONJ62 OWU62:OXF62 PGQ62:PHB62 PQM62:PQX62 QAI62:QAT62 QKE62:QKP62 QUA62:QUL62 RDW62:REH62 RNS62:ROD62 RXO62:RXZ62 SHK62:SHV62 SRG62:SRR62 TBC62:TBN62 TKY62:TLJ62 TUU62:TVF62 UEQ62:UFB62 UOM62:UOX62 UYI62:UYT62 VIE62:VIP62 VSA62:VSL62 WBW62:WCH62 WLS62:WMD62 WVO68:WVZ68 JC68:JN68 SY68:TJ68 ACU68:ADF68 AMQ68:ANB68 AWM68:AWX68 BGI68:BGT68 BQE68:BQP68 CAA68:CAL68 CJW68:CKH68 CTS68:CUD68 DDO68:DDZ68 DNK68:DNV68 DXG68:DXR68 EHC68:EHN68 EQY68:ERJ68 FAU68:FBF68 FKQ68:FLB68 FUM68:FUX68 GEI68:GET68 GOE68:GOP68 GYA68:GYL68 HHW68:HIH68 HRS68:HSD68 IBO68:IBZ68 ILK68:ILV68 IVG68:IVR68 JFC68:JFN68 JOY68:JPJ68 JYU68:JZF68 KIQ68:KJB68 KSM68:KSX68 LCI68:LCT68 LME68:LMP68 LWA68:LWL68 MFW68:MGH68 MPS68:MQD68 MZO68:MZZ68 NJK68:NJV68 NTG68:NTR68 ODC68:ODN68 OMY68:ONJ68 OWU68:OXF68 PGQ68:PHB68 PQM68:PQX68 QAI68:QAT68 QKE68:QKP68 QUA68:QUL68 RDW68:REH68 RNS68:ROD68 RXO68:RXZ68 SHK68:SHV68 SRG68:SRR68 TBC68:TBN68 TKY68:TLJ68 TUU68:TVF68 UEQ68:UFB68 UOM68:UOX68 UYI68:UYT68 VIE68:VIP68 VSA68:VSL68 WBW68:WCH68 WLS68:WMD68 WVO71:WVZ72 JC71:JN72 SY71:TJ72 ACU71:ADF72 AMQ71:ANB72 AWM71:AWX72 BGI71:BGT72 BQE71:BQP72 CAA71:CAL72 CJW71:CKH72 CTS71:CUD72 DDO71:DDZ72 DNK71:DNV72 DXG71:DXR72 EHC71:EHN72 EQY71:ERJ72 FAU71:FBF72 FKQ71:FLB72 FUM71:FUX72 GEI71:GET72 GOE71:GOP72 GYA71:GYL72 HHW71:HIH72 HRS71:HSD72 IBO71:IBZ72 ILK71:ILV72 IVG71:IVR72 JFC71:JFN72 JOY71:JPJ72 JYU71:JZF72 KIQ71:KJB72 KSM71:KSX72 LCI71:LCT72 LME71:LMP72 LWA71:LWL72 MFW71:MGH72 MPS71:MQD72 MZO71:MZZ72 NJK71:NJV72 NTG71:NTR72 ODC71:ODN72 OMY71:ONJ72 OWU71:OXF72 PGQ71:PHB72 PQM71:PQX72 QAI71:QAT72 QKE71:QKP72 QUA71:QUL72 RDW71:REH72 RNS71:ROD72 RXO71:RXZ72 SHK71:SHV72 SRG71:SRR72 TBC71:TBN72 TKY71:TLJ72 TUU71:TVF72 UEQ71:UFB72 UOM71:UOX72 UYI71:UYT72 VIE71:VIP72 VSA71:VSL72 WBW71:WCH72 WLS71:WMD72 WVO74:WVZ74 JC74:JN74 SY74:TJ74 ACU74:ADF74 AMQ74:ANB74 AWM74:AWX74 BGI74:BGT74 BQE74:BQP74 CAA74:CAL74 CJW74:CKH74 CTS74:CUD74 DDO74:DDZ74 DNK74:DNV74 DXG74:DXR74 EHC74:EHN74 EQY74:ERJ74 FAU74:FBF74 FKQ74:FLB74 FUM74:FUX74 GEI74:GET74 GOE74:GOP74 GYA74:GYL74 HHW74:HIH74 HRS74:HSD74 IBO74:IBZ74 ILK74:ILV74 IVG74:IVR74 JFC74:JFN74 JOY74:JPJ74 JYU74:JZF74 KIQ74:KJB74 KSM74:KSX74 LCI74:LCT74 LME74:LMP74 LWA74:LWL74 MFW74:MGH74 MPS74:MQD74 MZO74:MZZ74 NJK74:NJV74 NTG74:NTR74 ODC74:ODN74 OMY74:ONJ74 OWU74:OXF74 PGQ74:PHB74 PQM74:PQX74 QAI74:QAT74 QKE74:QKP74 QUA74:QUL74 RDW74:REH74 RNS74:ROD74 RXO74:RXZ74 SHK74:SHV74 SRG74:SRR74 TBC74:TBN74 TKY74:TLJ74 TUU74:TVF74 UEQ74:UFB74 UOM74:UOX74 UYI74:UYT74 VIE74:VIP74 VSA74:VSL74 WBW74:WCH74 WLS74:WMD74 WVO77:WVZ78 JC77:JN78 SY77:TJ78 ACU77:ADF78 AMQ77:ANB78 AWM77:AWX78 BGI77:BGT78 BQE77:BQP78 CAA77:CAL78 CJW77:CKH78 CTS77:CUD78 DDO77:DDZ78 DNK77:DNV78 DXG77:DXR78 EHC77:EHN78 EQY77:ERJ78 FAU77:FBF78 FKQ77:FLB78 FUM77:FUX78 GEI77:GET78 GOE77:GOP78 GYA77:GYL78 HHW77:HIH78 HRS77:HSD78 IBO77:IBZ78 ILK77:ILV78 IVG77:IVR78 JFC77:JFN78 JOY77:JPJ78 JYU77:JZF78 KIQ77:KJB78 KSM77:KSX78 LCI77:LCT78 LME77:LMP78 LWA77:LWL78 MFW77:MGH78 MPS77:MQD78 MZO77:MZZ78 NJK77:NJV78 NTG77:NTR78 ODC77:ODN78 OMY77:ONJ78 OWU77:OXF78 PGQ77:PHB78 PQM77:PQX78 QAI77:QAT78 QKE77:QKP78 QUA77:QUL78 RDW77:REH78 RNS77:ROD78 RXO77:RXZ78 SHK77:SHV78 SRG77:SRR78 TBC77:TBN78 TKY77:TLJ78 TUU77:TVF78 UEQ77:UFB78 UOM77:UOX78 UYI77:UYT78 VIE77:VIP78 VSA77:VSL78 WBW77:WCH78 WLS77:WMD78 G50:R1048576 WVO65:WVZ66 JC65:JN66 SY65:TJ66 ACU65:ADF66 AMQ65:ANB66 AWM65:AWX66 BGI65:BGT66 BQE65:BQP66 CAA65:CAL66 CJW65:CKH66 CTS65:CUD66 DDO65:DDZ66 DNK65:DNV66 DXG65:DXR66 EHC65:EHN66 EQY65:ERJ66 FAU65:FBF66 FKQ65:FLB66 FUM65:FUX66 GEI65:GET66 GOE65:GOP66 GYA65:GYL66 HHW65:HIH66 HRS65:HSD66 IBO65:IBZ66 ILK65:ILV66 IVG65:IVR66 JFC65:JFN66 JOY65:JPJ66 JYU65:JZF66 KIQ65:KJB66 KSM65:KSX66 LCI65:LCT66 LME65:LMP66 LWA65:LWL66 MFW65:MGH66 MPS65:MQD66 MZO65:MZZ66 NJK65:NJV66 NTG65:NTR66 ODC65:ODN66 OMY65:ONJ66 OWU65:OXF66 PGQ65:PHB66 PQM65:PQX66 QAI65:QAT66 QKE65:QKP66 QUA65:QUL66 RDW65:REH66 RNS65:ROD66 RXO65:RXZ66 SHK65:SHV66 SRG65:SRR66 TBC65:TBN66 TKY65:TLJ66 TUU65:TVF66 UEQ65:UFB66 UOM65:UOX66 UYI65:UYT66 VIE65:VIP66 VSA65:VSL66 WBW65:WCH66 WLS65:WMD66"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16542,113 +16722,113 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -16665,198 +16845,198 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="100" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="180" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="180"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="101" t="s">
         <v>775</v>
       </c>
-      <c r="B1" s="100" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="180"/>
+      <c r="B4" s="179" t="s">
         <v>776</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C4" s="179"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="180"/>
+      <c r="B5" s="179" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="C5" s="101" t="s">
         <v>778</v>
       </c>
-      <c r="B2" s="168" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="180"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="101" t="s">
         <v>779</v>
       </c>
-      <c r="C2" s="101" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="180"/>
+      <c r="B7" s="179" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="101" t="s">
+      <c r="C7" s="101" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="169"/>
-      <c r="B4" s="168" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="180"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="101" t="s">
         <v>782</v>
       </c>
-      <c r="C4" s="168"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
-      <c r="B5" s="168" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="179" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C9" s="179"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="180"/>
+      <c r="B10" s="179" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="101" t="s">
+      <c r="C10" s="101" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="168" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="180"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="101" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="101" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="180"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="101" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="101" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="180"/>
+      <c r="B13" s="179" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="168" t="s">
+      <c r="C13" s="101" t="s">
         <v>789</v>
       </c>
-      <c r="C9" s="168"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="168" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="180"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="101" t="s">
         <v>790</v>
       </c>
-      <c r="C10" s="101" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="180"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="101" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="101" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="180"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="101" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="101" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="180" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
-      <c r="B13" s="168" t="s">
+      <c r="B17" s="179" t="s">
         <v>794</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C17" s="179"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="180"/>
+      <c r="B18" s="179" t="s">
+        <v>802</v>
+      </c>
+      <c r="C18" s="179"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="180"/>
+      <c r="B19" s="179" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="101" t="s">
+      <c r="C19" s="179"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="180"/>
+      <c r="B20" s="179" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="101" t="s">
+      <c r="C20" s="179"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="180"/>
+      <c r="B21" s="179" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="101" t="s">
+      <c r="C21" s="101" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="180"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="101" t="s">
         <v>799</v>
       </c>
-      <c r="B17" s="168" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="180"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="101" t="s">
         <v>800</v>
       </c>
-      <c r="C17" s="168"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
-      <c r="B18" s="168" t="s">
-        <v>808</v>
-      </c>
-      <c r="C18" s="168"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="168" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="180"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="101" t="s">
         <v>801</v>
-      </c>
-      <c r="C19" s="168"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="168" t="s">
-        <v>802</v>
-      </c>
-      <c r="C20" s="168"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="168" t="s">
-        <v>803</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="101" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="101" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="101" t="s">
-        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -16889,197 +17069,197 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="100" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="180" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="101" t="s">
         <v>809</v>
       </c>
-      <c r="B1" s="100" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="180"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="101" t="s">
         <v>810</v>
       </c>
-      <c r="C1" s="100" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="101" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="101" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="169" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="180"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="101" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="101" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="180"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="101" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="101" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="180"/>
+      <c r="B9" s="180" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="101" t="s">
+      <c r="C9" s="101" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="101" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="180"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="101" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="101" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="180"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="101" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="101" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="180"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="101" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="101" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="180"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="101" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="180"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="101" t="s">
         <v>821</v>
       </c>
-      <c r="C9" s="101" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="180"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="101" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="101" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="180" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="101" t="s">
+      <c r="B16" s="180" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="101" t="s">
+      <c r="C16" s="101" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="101" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="180"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="101" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="101" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="180"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="101" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="101" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="180"/>
+      <c r="B19" s="100" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+      <c r="C19" s="101" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="180"/>
+      <c r="B20" s="180" t="s">
         <v>829</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="C20" s="101" t="s">
         <v>830</v>
       </c>
-      <c r="C16" s="101" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="180"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="101" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="101" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="180"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="101" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="101" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="180"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="101" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
-      <c r="B19" s="100" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="180"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="101" t="s">
         <v>834</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169" t="s">
-        <v>835</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="101" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="101" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="101" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="169"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="101" t="s">
-        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -17104,42 +17284,42 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="2" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="101" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="101" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="101" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="101" t="s">
+        <v>838</v>
+      </c>
+      <c r="B4" s="101" t="s">
         <v>841</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>842</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>843</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>844</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -17156,338 +17336,338 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="60.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="15" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="15" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -17508,7 +17688,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -17516,229 +17696,229 @@
     <col min="5" max="5" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
         <v>544</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="66" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="66" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+    <row r="7" spans="1:5">
+      <c r="B7" s="66" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" s="66" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="66" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" s="66" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" s="66" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" s="66" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" s="66" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" s="66" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" s="66" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" s="66" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" s="66" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="66" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="66" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="66" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="66" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="66" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="66" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="66" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="66" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="66" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="67" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="67" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="67" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="67" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="67" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="67" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="67" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="67" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="67" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="67" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="67" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="67" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="67" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="67" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="67" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="67" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="67" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="66" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="67" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="66" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="66" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="66" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="68" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="66" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="69" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="66" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="68" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="69" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
